--- a/src/main/resources/TestList.xlsx
+++ b/src/main/resources/TestList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/dev/shiratama-core/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/github/ldi-github/shirates-core/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6EE33E-6DC4-0244-B3E0-2295943651D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3942CF90-C9EA-7E4B-BA5A-A5B9954C0699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2120" yWindow="6600" windowWidth="39920" windowHeight="28500" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="List" sheetId="4" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestList!$A$4:$J$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestList!$A$4:$K$4</definedName>
     <definedName name="実施結果">List!$A$3:$A$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>result</t>
     <phoneticPr fontId="5"/>
@@ -153,6 +153,10 @@
     <t>Order</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Message</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -161,7 +165,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -237,6 +241,12 @@
       <b/>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -410,7 +420,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -491,15 +501,23 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1117,11 +1135,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I504"/>
+  <dimension ref="A1:J504"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.42578125" defaultRowHeight="13"/>
@@ -1135,25 +1153,26 @@
     <col min="7" max="7" width="6.5703125" style="13" customWidth="1"/>
     <col min="8" max="8" width="10" style="13" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" style="13" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" style="13" customWidth="1"/>
-    <col min="11" max="16384" width="6.42578125" style="13"/>
+    <col min="10" max="10" width="43.5703125" style="26" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" style="13" customWidth="1"/>
+    <col min="12" max="16384" width="6.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:10" ht="20">
+      <c r="A1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="24"/>
     </row>
-    <row r="2" spans="1:9" ht="17" customHeight="1">
+    <row r="2" spans="1:10" ht="17" customHeight="1">
       <c r="F2" s="23" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:9" ht="16" customHeight="1" thickBot="1"/>
-    <row r="4" spans="1:9" s="17" customFormat="1">
+    <row r="3" spans="1:10" ht="16" customHeight="1" thickBot="1"/>
+    <row r="4" spans="1:10" s="17" customFormat="1">
       <c r="A4" s="14" t="s">
         <v>18</v>
       </c>
@@ -1181,8 +1200,11 @@
       <c r="I4" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="18">
         <v>1</v>
       </c>
@@ -1194,8 +1216,9 @@
       <c r="G5" s="20"/>
       <c r="H5" s="21"/>
       <c r="I5" s="25"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="28"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="18">
         <v>2</v>
       </c>
@@ -1207,8 +1230,9 @@
       <c r="G6" s="20"/>
       <c r="H6" s="21"/>
       <c r="I6" s="25"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="28"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="18">
         <v>3</v>
       </c>
@@ -1220,8 +1244,9 @@
       <c r="G7" s="20"/>
       <c r="H7" s="21"/>
       <c r="I7" s="25"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="28"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="18">
         <v>4</v>
       </c>
@@ -1233,8 +1258,9 @@
       <c r="G8" s="20"/>
       <c r="H8" s="21"/>
       <c r="I8" s="25"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="28"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="18">
         <v>5</v>
       </c>
@@ -1246,8 +1272,9 @@
       <c r="G9" s="20"/>
       <c r="H9" s="21"/>
       <c r="I9" s="25"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="28"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="18">
         <v>6</v>
       </c>
@@ -1259,8 +1286,9 @@
       <c r="G10" s="20"/>
       <c r="H10" s="21"/>
       <c r="I10" s="25"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="28"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="18">
         <v>7</v>
       </c>
@@ -1272,8 +1300,9 @@
       <c r="G11" s="20"/>
       <c r="H11" s="21"/>
       <c r="I11" s="25"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="28"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="18">
         <v>8</v>
       </c>
@@ -1285,8 +1314,9 @@
       <c r="G12" s="20"/>
       <c r="H12" s="21"/>
       <c r="I12" s="25"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="28"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="18">
         <v>9</v>
       </c>
@@ -1298,8 +1328,9 @@
       <c r="G13" s="20"/>
       <c r="H13" s="21"/>
       <c r="I13" s="25"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="28"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="18">
         <v>10</v>
       </c>
@@ -1311,8 +1342,9 @@
       <c r="G14" s="20"/>
       <c r="H14" s="21"/>
       <c r="I14" s="25"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="28"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="18">
         <v>11</v>
       </c>
@@ -1324,8 +1356,9 @@
       <c r="G15" s="20"/>
       <c r="H15" s="21"/>
       <c r="I15" s="25"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="28"/>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="18">
         <v>12</v>
       </c>
@@ -1337,8 +1370,9 @@
       <c r="G16" s="20"/>
       <c r="H16" s="21"/>
       <c r="I16" s="25"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="28"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="18">
         <v>13</v>
       </c>
@@ -1350,8 +1384,9 @@
       <c r="G17" s="20"/>
       <c r="H17" s="21"/>
       <c r="I17" s="25"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="28"/>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="18">
         <v>14</v>
       </c>
@@ -1363,8 +1398,9 @@
       <c r="G18" s="20"/>
       <c r="H18" s="21"/>
       <c r="I18" s="25"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="28"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="18">
         <v>15</v>
       </c>
@@ -1376,8 +1412,9 @@
       <c r="G19" s="20"/>
       <c r="H19" s="21"/>
       <c r="I19" s="25"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="28"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="18">
         <v>16</v>
       </c>
@@ -1389,8 +1426,9 @@
       <c r="G20" s="20"/>
       <c r="H20" s="21"/>
       <c r="I20" s="25"/>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="28"/>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="18">
         <v>17</v>
       </c>
@@ -1402,8 +1440,9 @@
       <c r="G21" s="20"/>
       <c r="H21" s="21"/>
       <c r="I21" s="25"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="28"/>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="18">
         <v>18</v>
       </c>
@@ -1415,8 +1454,9 @@
       <c r="G22" s="20"/>
       <c r="H22" s="21"/>
       <c r="I22" s="25"/>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="28"/>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="18">
         <v>19</v>
       </c>
@@ -1428,8 +1468,9 @@
       <c r="G23" s="20"/>
       <c r="H23" s="21"/>
       <c r="I23" s="25"/>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="28"/>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="18">
         <v>20</v>
       </c>
@@ -1441,8 +1482,9 @@
       <c r="G24" s="20"/>
       <c r="H24" s="21"/>
       <c r="I24" s="25"/>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="28"/>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="18">
         <v>21</v>
       </c>
@@ -1454,8 +1496,9 @@
       <c r="G25" s="20"/>
       <c r="H25" s="21"/>
       <c r="I25" s="25"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="28"/>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="18">
         <v>22</v>
       </c>
@@ -1467,8 +1510,9 @@
       <c r="G26" s="20"/>
       <c r="H26" s="21"/>
       <c r="I26" s="25"/>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="28"/>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="18">
         <v>23</v>
       </c>
@@ -1480,8 +1524,9 @@
       <c r="G27" s="20"/>
       <c r="H27" s="21"/>
       <c r="I27" s="25"/>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="28"/>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="18">
         <v>24</v>
       </c>
@@ -1493,8 +1538,9 @@
       <c r="G28" s="20"/>
       <c r="H28" s="21"/>
       <c r="I28" s="25"/>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="28"/>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="18">
         <v>25</v>
       </c>
@@ -1506,8 +1552,9 @@
       <c r="G29" s="20"/>
       <c r="H29" s="21"/>
       <c r="I29" s="25"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="28"/>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="18">
         <v>26</v>
       </c>
@@ -1519,8 +1566,9 @@
       <c r="G30" s="20"/>
       <c r="H30" s="21"/>
       <c r="I30" s="25"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" s="28"/>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="18">
         <v>27</v>
       </c>
@@ -1532,8 +1580,9 @@
       <c r="G31" s="20"/>
       <c r="H31" s="21"/>
       <c r="I31" s="25"/>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" s="28"/>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="18">
         <v>28</v>
       </c>
@@ -1545,8 +1594,9 @@
       <c r="G32" s="20"/>
       <c r="H32" s="21"/>
       <c r="I32" s="25"/>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" s="28"/>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="18">
         <v>29</v>
       </c>
@@ -1558,8 +1608,9 @@
       <c r="G33" s="20"/>
       <c r="H33" s="21"/>
       <c r="I33" s="25"/>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" s="28"/>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="18">
         <v>30</v>
       </c>
@@ -1571,8 +1622,9 @@
       <c r="G34" s="20"/>
       <c r="H34" s="21"/>
       <c r="I34" s="25"/>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" s="28"/>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="18">
         <v>31</v>
       </c>
@@ -1584,8 +1636,9 @@
       <c r="G35" s="20"/>
       <c r="H35" s="21"/>
       <c r="I35" s="25"/>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" s="28"/>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="18">
         <v>32</v>
       </c>
@@ -1597,8 +1650,9 @@
       <c r="G36" s="20"/>
       <c r="H36" s="21"/>
       <c r="I36" s="25"/>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" s="28"/>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="18">
         <v>33</v>
       </c>
@@ -1610,8 +1664,9 @@
       <c r="G37" s="20"/>
       <c r="H37" s="21"/>
       <c r="I37" s="25"/>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" s="28"/>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="18">
         <v>34</v>
       </c>
@@ -1623,8 +1678,9 @@
       <c r="G38" s="20"/>
       <c r="H38" s="21"/>
       <c r="I38" s="25"/>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" s="28"/>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="18">
         <v>35</v>
       </c>
@@ -1636,8 +1692,9 @@
       <c r="G39" s="20"/>
       <c r="H39" s="21"/>
       <c r="I39" s="25"/>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39" s="28"/>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="18">
         <v>36</v>
       </c>
@@ -1649,8 +1706,9 @@
       <c r="G40" s="20"/>
       <c r="H40" s="21"/>
       <c r="I40" s="25"/>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40" s="28"/>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="18">
         <v>37</v>
       </c>
@@ -1662,8 +1720,9 @@
       <c r="G41" s="20"/>
       <c r="H41" s="21"/>
       <c r="I41" s="25"/>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41" s="28"/>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="18">
         <v>38</v>
       </c>
@@ -1675,8 +1734,9 @@
       <c r="G42" s="20"/>
       <c r="H42" s="21"/>
       <c r="I42" s="25"/>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42" s="28"/>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="18">
         <v>39</v>
       </c>
@@ -1688,8 +1748,9 @@
       <c r="G43" s="20"/>
       <c r="H43" s="21"/>
       <c r="I43" s="25"/>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43" s="28"/>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="18">
         <v>40</v>
       </c>
@@ -1701,8 +1762,9 @@
       <c r="G44" s="20"/>
       <c r="H44" s="21"/>
       <c r="I44" s="25"/>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44" s="28"/>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="18">
         <v>41</v>
       </c>
@@ -1714,8 +1776,9 @@
       <c r="G45" s="20"/>
       <c r="H45" s="21"/>
       <c r="I45" s="25"/>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45" s="28"/>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="18">
         <v>42</v>
       </c>
@@ -1727,8 +1790,9 @@
       <c r="G46" s="20"/>
       <c r="H46" s="21"/>
       <c r="I46" s="25"/>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46" s="28"/>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="18">
         <v>43</v>
       </c>
@@ -1740,8 +1804,9 @@
       <c r="G47" s="20"/>
       <c r="H47" s="21"/>
       <c r="I47" s="25"/>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47" s="28"/>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="18">
         <v>44</v>
       </c>
@@ -1753,8 +1818,9 @@
       <c r="G48" s="20"/>
       <c r="H48" s="21"/>
       <c r="I48" s="25"/>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48" s="28"/>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="18">
         <v>45</v>
       </c>
@@ -1766,8 +1832,9 @@
       <c r="G49" s="20"/>
       <c r="H49" s="21"/>
       <c r="I49" s="25"/>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49" s="28"/>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="18">
         <v>46</v>
       </c>
@@ -1779,8 +1846,9 @@
       <c r="G50" s="20"/>
       <c r="H50" s="21"/>
       <c r="I50" s="25"/>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50" s="28"/>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="18">
         <v>47</v>
       </c>
@@ -1792,8 +1860,9 @@
       <c r="G51" s="20"/>
       <c r="H51" s="21"/>
       <c r="I51" s="25"/>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51" s="28"/>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="18">
         <v>48</v>
       </c>
@@ -1805,8 +1874,9 @@
       <c r="G52" s="20"/>
       <c r="H52" s="21"/>
       <c r="I52" s="25"/>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52" s="28"/>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="18">
         <v>49</v>
       </c>
@@ -1818,8 +1888,9 @@
       <c r="G53" s="20"/>
       <c r="H53" s="21"/>
       <c r="I53" s="25"/>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53" s="28"/>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="18">
         <v>50</v>
       </c>
@@ -1831,8 +1902,9 @@
       <c r="G54" s="20"/>
       <c r="H54" s="21"/>
       <c r="I54" s="25"/>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="J54" s="28"/>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="18">
         <v>51</v>
       </c>
@@ -1844,8 +1916,9 @@
       <c r="G55" s="20"/>
       <c r="H55" s="21"/>
       <c r="I55" s="25"/>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55" s="28"/>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="18">
         <v>52</v>
       </c>
@@ -1857,8 +1930,9 @@
       <c r="G56" s="20"/>
       <c r="H56" s="21"/>
       <c r="I56" s="25"/>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="J56" s="28"/>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="18">
         <v>53</v>
       </c>
@@ -1870,8 +1944,9 @@
       <c r="G57" s="20"/>
       <c r="H57" s="21"/>
       <c r="I57" s="25"/>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57" s="28"/>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="18">
         <v>54</v>
       </c>
@@ -1883,8 +1958,9 @@
       <c r="G58" s="20"/>
       <c r="H58" s="21"/>
       <c r="I58" s="25"/>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58" s="28"/>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="18">
         <v>55</v>
       </c>
@@ -1896,8 +1972,9 @@
       <c r="G59" s="20"/>
       <c r="H59" s="21"/>
       <c r="I59" s="25"/>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="J59" s="28"/>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="18">
         <v>56</v>
       </c>
@@ -1909,8 +1986,9 @@
       <c r="G60" s="20"/>
       <c r="H60" s="21"/>
       <c r="I60" s="25"/>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60" s="28"/>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="18">
         <v>57</v>
       </c>
@@ -1922,8 +2000,9 @@
       <c r="G61" s="20"/>
       <c r="H61" s="21"/>
       <c r="I61" s="25"/>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="J61" s="28"/>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="18">
         <v>58</v>
       </c>
@@ -1935,8 +2014,9 @@
       <c r="G62" s="20"/>
       <c r="H62" s="21"/>
       <c r="I62" s="25"/>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="J62" s="28"/>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="18">
         <v>59</v>
       </c>
@@ -1948,8 +2028,9 @@
       <c r="G63" s="20"/>
       <c r="H63" s="21"/>
       <c r="I63" s="25"/>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="J63" s="28"/>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="18">
         <v>60</v>
       </c>
@@ -1961,8 +2042,9 @@
       <c r="G64" s="20"/>
       <c r="H64" s="21"/>
       <c r="I64" s="25"/>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="J64" s="28"/>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="18">
         <v>61</v>
       </c>
@@ -1974,8 +2056,9 @@
       <c r="G65" s="20"/>
       <c r="H65" s="21"/>
       <c r="I65" s="25"/>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="J65" s="28"/>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="18">
         <v>62</v>
       </c>
@@ -1987,8 +2070,9 @@
       <c r="G66" s="20"/>
       <c r="H66" s="21"/>
       <c r="I66" s="25"/>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="J66" s="28"/>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="18">
         <v>63</v>
       </c>
@@ -2000,8 +2084,9 @@
       <c r="G67" s="20"/>
       <c r="H67" s="21"/>
       <c r="I67" s="25"/>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="J67" s="28"/>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="18">
         <v>64</v>
       </c>
@@ -2013,8 +2098,9 @@
       <c r="G68" s="20"/>
       <c r="H68" s="21"/>
       <c r="I68" s="25"/>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="J68" s="28"/>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="18">
         <v>65</v>
       </c>
@@ -2026,8 +2112,9 @@
       <c r="G69" s="20"/>
       <c r="H69" s="21"/>
       <c r="I69" s="25"/>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="J69" s="28"/>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="18">
         <v>66</v>
       </c>
@@ -2039,8 +2126,9 @@
       <c r="G70" s="20"/>
       <c r="H70" s="21"/>
       <c r="I70" s="25"/>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="J70" s="28"/>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="18">
         <v>67</v>
       </c>
@@ -2052,8 +2140,9 @@
       <c r="G71" s="20"/>
       <c r="H71" s="21"/>
       <c r="I71" s="25"/>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="J71" s="28"/>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="18">
         <v>68</v>
       </c>
@@ -2065,8 +2154,9 @@
       <c r="G72" s="20"/>
       <c r="H72" s="21"/>
       <c r="I72" s="25"/>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="J72" s="28"/>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="18">
         <v>69</v>
       </c>
@@ -2078,8 +2168,9 @@
       <c r="G73" s="20"/>
       <c r="H73" s="21"/>
       <c r="I73" s="25"/>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="J73" s="28"/>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="18">
         <v>70</v>
       </c>
@@ -2091,8 +2182,9 @@
       <c r="G74" s="20"/>
       <c r="H74" s="21"/>
       <c r="I74" s="25"/>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="J74" s="28"/>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="18">
         <v>71</v>
       </c>
@@ -2104,8 +2196,9 @@
       <c r="G75" s="20"/>
       <c r="H75" s="21"/>
       <c r="I75" s="25"/>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="J75" s="28"/>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="18">
         <v>72</v>
       </c>
@@ -2117,8 +2210,9 @@
       <c r="G76" s="20"/>
       <c r="H76" s="21"/>
       <c r="I76" s="25"/>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="J76" s="28"/>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="18">
         <v>73</v>
       </c>
@@ -2130,8 +2224,9 @@
       <c r="G77" s="20"/>
       <c r="H77" s="21"/>
       <c r="I77" s="25"/>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="J77" s="28"/>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="18">
         <v>74</v>
       </c>
@@ -2143,8 +2238,9 @@
       <c r="G78" s="20"/>
       <c r="H78" s="21"/>
       <c r="I78" s="25"/>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="J78" s="28"/>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="18">
         <v>75</v>
       </c>
@@ -2156,8 +2252,9 @@
       <c r="G79" s="20"/>
       <c r="H79" s="21"/>
       <c r="I79" s="25"/>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="J79" s="28"/>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="18">
         <v>76</v>
       </c>
@@ -2169,8 +2266,9 @@
       <c r="G80" s="20"/>
       <c r="H80" s="21"/>
       <c r="I80" s="25"/>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="J80" s="28"/>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="18">
         <v>77</v>
       </c>
@@ -2182,8 +2280,9 @@
       <c r="G81" s="20"/>
       <c r="H81" s="21"/>
       <c r="I81" s="25"/>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="J81" s="28"/>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="18">
         <v>78</v>
       </c>
@@ -2195,8 +2294,9 @@
       <c r="G82" s="20"/>
       <c r="H82" s="21"/>
       <c r="I82" s="25"/>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="J82" s="28"/>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="18">
         <v>79</v>
       </c>
@@ -2208,8 +2308,9 @@
       <c r="G83" s="20"/>
       <c r="H83" s="21"/>
       <c r="I83" s="25"/>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="J83" s="28"/>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="18">
         <v>80</v>
       </c>
@@ -2221,8 +2322,9 @@
       <c r="G84" s="20"/>
       <c r="H84" s="21"/>
       <c r="I84" s="25"/>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="J84" s="28"/>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="18">
         <v>81</v>
       </c>
@@ -2234,8 +2336,9 @@
       <c r="G85" s="20"/>
       <c r="H85" s="21"/>
       <c r="I85" s="25"/>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="J85" s="28"/>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="18">
         <v>82</v>
       </c>
@@ -2247,8 +2350,9 @@
       <c r="G86" s="20"/>
       <c r="H86" s="21"/>
       <c r="I86" s="25"/>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="J86" s="28"/>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="18">
         <v>83</v>
       </c>
@@ -2260,8 +2364,9 @@
       <c r="G87" s="20"/>
       <c r="H87" s="21"/>
       <c r="I87" s="25"/>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="J87" s="28"/>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="18">
         <v>84</v>
       </c>
@@ -2273,8 +2378,9 @@
       <c r="G88" s="20"/>
       <c r="H88" s="21"/>
       <c r="I88" s="25"/>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="J88" s="28"/>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="18">
         <v>85</v>
       </c>
@@ -2286,8 +2392,9 @@
       <c r="G89" s="20"/>
       <c r="H89" s="21"/>
       <c r="I89" s="25"/>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="J89" s="28"/>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="18">
         <v>86</v>
       </c>
@@ -2299,8 +2406,9 @@
       <c r="G90" s="20"/>
       <c r="H90" s="21"/>
       <c r="I90" s="25"/>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="J90" s="28"/>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="18">
         <v>87</v>
       </c>
@@ -2312,8 +2420,9 @@
       <c r="G91" s="20"/>
       <c r="H91" s="21"/>
       <c r="I91" s="25"/>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="J91" s="28"/>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="18">
         <v>88</v>
       </c>
@@ -2325,8 +2434,9 @@
       <c r="G92" s="20"/>
       <c r="H92" s="21"/>
       <c r="I92" s="25"/>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="J92" s="28"/>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="18">
         <v>89</v>
       </c>
@@ -2338,8 +2448,9 @@
       <c r="G93" s="20"/>
       <c r="H93" s="21"/>
       <c r="I93" s="25"/>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="J93" s="28"/>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="18">
         <v>90</v>
       </c>
@@ -2351,8 +2462,9 @@
       <c r="G94" s="20"/>
       <c r="H94" s="21"/>
       <c r="I94" s="25"/>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="J94" s="28"/>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="18">
         <v>91</v>
       </c>
@@ -2364,8 +2476,9 @@
       <c r="G95" s="20"/>
       <c r="H95" s="21"/>
       <c r="I95" s="25"/>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="J95" s="28"/>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="18">
         <v>92</v>
       </c>
@@ -2377,8 +2490,9 @@
       <c r="G96" s="20"/>
       <c r="H96" s="21"/>
       <c r="I96" s="25"/>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96" s="28"/>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="18">
         <v>93</v>
       </c>
@@ -2390,8 +2504,9 @@
       <c r="G97" s="20"/>
       <c r="H97" s="21"/>
       <c r="I97" s="25"/>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="J97" s="28"/>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="18">
         <v>94</v>
       </c>
@@ -2403,8 +2518,9 @@
       <c r="G98" s="20"/>
       <c r="H98" s="21"/>
       <c r="I98" s="25"/>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="J98" s="28"/>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="18">
         <v>95</v>
       </c>
@@ -2416,8 +2532,9 @@
       <c r="G99" s="20"/>
       <c r="H99" s="21"/>
       <c r="I99" s="25"/>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="J99" s="28"/>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="18">
         <v>96</v>
       </c>
@@ -2429,8 +2546,9 @@
       <c r="G100" s="20"/>
       <c r="H100" s="21"/>
       <c r="I100" s="25"/>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="J100" s="28"/>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="18">
         <v>97</v>
       </c>
@@ -2442,8 +2560,9 @@
       <c r="G101" s="20"/>
       <c r="H101" s="21"/>
       <c r="I101" s="25"/>
-    </row>
-    <row r="102" spans="1:9">
+      <c r="J101" s="28"/>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="18">
         <v>98</v>
       </c>
@@ -2455,8 +2574,9 @@
       <c r="G102" s="20"/>
       <c r="H102" s="21"/>
       <c r="I102" s="25"/>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="J102" s="28"/>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="18">
         <v>99</v>
       </c>
@@ -2468,8 +2588,9 @@
       <c r="G103" s="20"/>
       <c r="H103" s="21"/>
       <c r="I103" s="25"/>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103" s="28"/>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="18">
         <v>100</v>
       </c>
@@ -2481,8 +2602,9 @@
       <c r="G104" s="20"/>
       <c r="H104" s="21"/>
       <c r="I104" s="25"/>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="J104" s="28"/>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="18">
         <v>101</v>
       </c>
@@ -2494,8 +2616,9 @@
       <c r="G105" s="20"/>
       <c r="H105" s="21"/>
       <c r="I105" s="25"/>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="J105" s="28"/>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="18">
         <v>102</v>
       </c>
@@ -2507,8 +2630,9 @@
       <c r="G106" s="20"/>
       <c r="H106" s="21"/>
       <c r="I106" s="25"/>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="J106" s="28"/>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="18">
         <v>103</v>
       </c>
@@ -2520,8 +2644,9 @@
       <c r="G107" s="20"/>
       <c r="H107" s="21"/>
       <c r="I107" s="25"/>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="J107" s="28"/>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="18">
         <v>104</v>
       </c>
@@ -2533,8 +2658,9 @@
       <c r="G108" s="20"/>
       <c r="H108" s="21"/>
       <c r="I108" s="25"/>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="J108" s="28"/>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="18">
         <v>105</v>
       </c>
@@ -2546,8 +2672,9 @@
       <c r="G109" s="20"/>
       <c r="H109" s="21"/>
       <c r="I109" s="25"/>
-    </row>
-    <row r="110" spans="1:9">
+      <c r="J109" s="28"/>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="18">
         <v>106</v>
       </c>
@@ -2559,8 +2686,9 @@
       <c r="G110" s="20"/>
       <c r="H110" s="21"/>
       <c r="I110" s="25"/>
-    </row>
-    <row r="111" spans="1:9">
+      <c r="J110" s="28"/>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="18">
         <v>107</v>
       </c>
@@ -2572,8 +2700,9 @@
       <c r="G111" s="20"/>
       <c r="H111" s="21"/>
       <c r="I111" s="25"/>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="J111" s="28"/>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="18">
         <v>108</v>
       </c>
@@ -2585,8 +2714,9 @@
       <c r="G112" s="20"/>
       <c r="H112" s="21"/>
       <c r="I112" s="25"/>
-    </row>
-    <row r="113" spans="1:9">
+      <c r="J112" s="28"/>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="18">
         <v>109</v>
       </c>
@@ -2598,8 +2728,9 @@
       <c r="G113" s="20"/>
       <c r="H113" s="21"/>
       <c r="I113" s="25"/>
-    </row>
-    <row r="114" spans="1:9">
+      <c r="J113" s="28"/>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="18">
         <v>110</v>
       </c>
@@ -2611,8 +2742,9 @@
       <c r="G114" s="20"/>
       <c r="H114" s="21"/>
       <c r="I114" s="25"/>
-    </row>
-    <row r="115" spans="1:9">
+      <c r="J114" s="28"/>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="18">
         <v>111</v>
       </c>
@@ -2624,8 +2756,9 @@
       <c r="G115" s="20"/>
       <c r="H115" s="21"/>
       <c r="I115" s="25"/>
-    </row>
-    <row r="116" spans="1:9">
+      <c r="J115" s="28"/>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="18">
         <v>112</v>
       </c>
@@ -2637,8 +2770,9 @@
       <c r="G116" s="20"/>
       <c r="H116" s="21"/>
       <c r="I116" s="25"/>
-    </row>
-    <row r="117" spans="1:9">
+      <c r="J116" s="28"/>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="18">
         <v>113</v>
       </c>
@@ -2650,8 +2784,9 @@
       <c r="G117" s="20"/>
       <c r="H117" s="21"/>
       <c r="I117" s="25"/>
-    </row>
-    <row r="118" spans="1:9">
+      <c r="J117" s="28"/>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="18">
         <v>114</v>
       </c>
@@ -2663,8 +2798,9 @@
       <c r="G118" s="20"/>
       <c r="H118" s="21"/>
       <c r="I118" s="25"/>
-    </row>
-    <row r="119" spans="1:9">
+      <c r="J118" s="28"/>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="18">
         <v>115</v>
       </c>
@@ -2676,8 +2812,9 @@
       <c r="G119" s="20"/>
       <c r="H119" s="21"/>
       <c r="I119" s="25"/>
-    </row>
-    <row r="120" spans="1:9">
+      <c r="J119" s="28"/>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="18">
         <v>116</v>
       </c>
@@ -2689,8 +2826,9 @@
       <c r="G120" s="20"/>
       <c r="H120" s="21"/>
       <c r="I120" s="25"/>
-    </row>
-    <row r="121" spans="1:9">
+      <c r="J120" s="28"/>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="18">
         <v>117</v>
       </c>
@@ -2702,8 +2840,9 @@
       <c r="G121" s="20"/>
       <c r="H121" s="21"/>
       <c r="I121" s="25"/>
-    </row>
-    <row r="122" spans="1:9">
+      <c r="J121" s="28"/>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="18">
         <v>118</v>
       </c>
@@ -2715,8 +2854,9 @@
       <c r="G122" s="20"/>
       <c r="H122" s="21"/>
       <c r="I122" s="25"/>
-    </row>
-    <row r="123" spans="1:9">
+      <c r="J122" s="28"/>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="18">
         <v>119</v>
       </c>
@@ -2728,8 +2868,9 @@
       <c r="G123" s="20"/>
       <c r="H123" s="21"/>
       <c r="I123" s="25"/>
-    </row>
-    <row r="124" spans="1:9">
+      <c r="J123" s="28"/>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="18">
         <v>120</v>
       </c>
@@ -2741,8 +2882,9 @@
       <c r="G124" s="20"/>
       <c r="H124" s="21"/>
       <c r="I124" s="25"/>
-    </row>
-    <row r="125" spans="1:9">
+      <c r="J124" s="28"/>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="18">
         <v>121</v>
       </c>
@@ -2754,8 +2896,9 @@
       <c r="G125" s="20"/>
       <c r="H125" s="21"/>
       <c r="I125" s="25"/>
-    </row>
-    <row r="126" spans="1:9">
+      <c r="J125" s="28"/>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="18">
         <v>122</v>
       </c>
@@ -2767,8 +2910,9 @@
       <c r="G126" s="20"/>
       <c r="H126" s="21"/>
       <c r="I126" s="25"/>
-    </row>
-    <row r="127" spans="1:9">
+      <c r="J126" s="28"/>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="18">
         <v>123</v>
       </c>
@@ -2780,8 +2924,9 @@
       <c r="G127" s="20"/>
       <c r="H127" s="21"/>
       <c r="I127" s="25"/>
-    </row>
-    <row r="128" spans="1:9">
+      <c r="J127" s="28"/>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="18">
         <v>124</v>
       </c>
@@ -2793,8 +2938,9 @@
       <c r="G128" s="20"/>
       <c r="H128" s="21"/>
       <c r="I128" s="25"/>
-    </row>
-    <row r="129" spans="1:9">
+      <c r="J128" s="28"/>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="18">
         <v>125</v>
       </c>
@@ -2806,8 +2952,9 @@
       <c r="G129" s="20"/>
       <c r="H129" s="21"/>
       <c r="I129" s="25"/>
-    </row>
-    <row r="130" spans="1:9">
+      <c r="J129" s="28"/>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="18">
         <v>126</v>
       </c>
@@ -2819,8 +2966,9 @@
       <c r="G130" s="20"/>
       <c r="H130" s="21"/>
       <c r="I130" s="25"/>
-    </row>
-    <row r="131" spans="1:9">
+      <c r="J130" s="28"/>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="18">
         <v>127</v>
       </c>
@@ -2832,8 +2980,9 @@
       <c r="G131" s="20"/>
       <c r="H131" s="21"/>
       <c r="I131" s="25"/>
-    </row>
-    <row r="132" spans="1:9">
+      <c r="J131" s="28"/>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="18">
         <v>128</v>
       </c>
@@ -2845,8 +2994,9 @@
       <c r="G132" s="20"/>
       <c r="H132" s="21"/>
       <c r="I132" s="25"/>
-    </row>
-    <row r="133" spans="1:9">
+      <c r="J132" s="28"/>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="18">
         <v>129</v>
       </c>
@@ -2858,8 +3008,9 @@
       <c r="G133" s="20"/>
       <c r="H133" s="21"/>
       <c r="I133" s="25"/>
-    </row>
-    <row r="134" spans="1:9">
+      <c r="J133" s="28"/>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="18">
         <v>130</v>
       </c>
@@ -2871,8 +3022,9 @@
       <c r="G134" s="20"/>
       <c r="H134" s="21"/>
       <c r="I134" s="25"/>
-    </row>
-    <row r="135" spans="1:9">
+      <c r="J134" s="28"/>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="18">
         <v>131</v>
       </c>
@@ -2884,8 +3036,9 @@
       <c r="G135" s="20"/>
       <c r="H135" s="21"/>
       <c r="I135" s="25"/>
-    </row>
-    <row r="136" spans="1:9">
+      <c r="J135" s="28"/>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="18">
         <v>132</v>
       </c>
@@ -2897,8 +3050,9 @@
       <c r="G136" s="20"/>
       <c r="H136" s="21"/>
       <c r="I136" s="25"/>
-    </row>
-    <row r="137" spans="1:9">
+      <c r="J136" s="28"/>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="18">
         <v>133</v>
       </c>
@@ -2910,8 +3064,9 @@
       <c r="G137" s="20"/>
       <c r="H137" s="21"/>
       <c r="I137" s="25"/>
-    </row>
-    <row r="138" spans="1:9">
+      <c r="J137" s="28"/>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="18">
         <v>134</v>
       </c>
@@ -2923,8 +3078,9 @@
       <c r="G138" s="20"/>
       <c r="H138" s="21"/>
       <c r="I138" s="25"/>
-    </row>
-    <row r="139" spans="1:9">
+      <c r="J138" s="28"/>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="18">
         <v>135</v>
       </c>
@@ -2936,8 +3092,9 @@
       <c r="G139" s="20"/>
       <c r="H139" s="21"/>
       <c r="I139" s="25"/>
-    </row>
-    <row r="140" spans="1:9">
+      <c r="J139" s="28"/>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="18">
         <v>136</v>
       </c>
@@ -2949,8 +3106,9 @@
       <c r="G140" s="20"/>
       <c r="H140" s="21"/>
       <c r="I140" s="25"/>
-    </row>
-    <row r="141" spans="1:9">
+      <c r="J140" s="28"/>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="18">
         <v>137</v>
       </c>
@@ -2962,8 +3120,9 @@
       <c r="G141" s="20"/>
       <c r="H141" s="21"/>
       <c r="I141" s="25"/>
-    </row>
-    <row r="142" spans="1:9">
+      <c r="J141" s="28"/>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="18">
         <v>138</v>
       </c>
@@ -2975,8 +3134,9 @@
       <c r="G142" s="20"/>
       <c r="H142" s="21"/>
       <c r="I142" s="25"/>
-    </row>
-    <row r="143" spans="1:9">
+      <c r="J142" s="28"/>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="18">
         <v>139</v>
       </c>
@@ -2988,8 +3148,9 @@
       <c r="G143" s="20"/>
       <c r="H143" s="21"/>
       <c r="I143" s="25"/>
-    </row>
-    <row r="144" spans="1:9">
+      <c r="J143" s="28"/>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="18">
         <v>140</v>
       </c>
@@ -3001,8 +3162,9 @@
       <c r="G144" s="20"/>
       <c r="H144" s="21"/>
       <c r="I144" s="25"/>
-    </row>
-    <row r="145" spans="1:9">
+      <c r="J144" s="28"/>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="18">
         <v>141</v>
       </c>
@@ -3014,8 +3176,9 @@
       <c r="G145" s="20"/>
       <c r="H145" s="21"/>
       <c r="I145" s="25"/>
-    </row>
-    <row r="146" spans="1:9">
+      <c r="J145" s="28"/>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="18">
         <v>142</v>
       </c>
@@ -3027,8 +3190,9 @@
       <c r="G146" s="20"/>
       <c r="H146" s="21"/>
       <c r="I146" s="25"/>
-    </row>
-    <row r="147" spans="1:9">
+      <c r="J146" s="28"/>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="18">
         <v>143</v>
       </c>
@@ -3040,8 +3204,9 @@
       <c r="G147" s="20"/>
       <c r="H147" s="21"/>
       <c r="I147" s="25"/>
-    </row>
-    <row r="148" spans="1:9">
+      <c r="J147" s="28"/>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="18">
         <v>144</v>
       </c>
@@ -3053,8 +3218,9 @@
       <c r="G148" s="20"/>
       <c r="H148" s="21"/>
       <c r="I148" s="25"/>
-    </row>
-    <row r="149" spans="1:9">
+      <c r="J148" s="28"/>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="18">
         <v>145</v>
       </c>
@@ -3066,8 +3232,9 @@
       <c r="G149" s="20"/>
       <c r="H149" s="21"/>
       <c r="I149" s="25"/>
-    </row>
-    <row r="150" spans="1:9">
+      <c r="J149" s="28"/>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="18">
         <v>146</v>
       </c>
@@ -3079,8 +3246,9 @@
       <c r="G150" s="20"/>
       <c r="H150" s="21"/>
       <c r="I150" s="25"/>
-    </row>
-    <row r="151" spans="1:9">
+      <c r="J150" s="28"/>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="18">
         <v>147</v>
       </c>
@@ -3092,8 +3260,9 @@
       <c r="G151" s="20"/>
       <c r="H151" s="21"/>
       <c r="I151" s="25"/>
-    </row>
-    <row r="152" spans="1:9">
+      <c r="J151" s="28"/>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="18">
         <v>148</v>
       </c>
@@ -3105,8 +3274,9 @@
       <c r="G152" s="20"/>
       <c r="H152" s="21"/>
       <c r="I152" s="25"/>
-    </row>
-    <row r="153" spans="1:9">
+      <c r="J152" s="28"/>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="18">
         <v>149</v>
       </c>
@@ -3118,8 +3288,9 @@
       <c r="G153" s="20"/>
       <c r="H153" s="21"/>
       <c r="I153" s="25"/>
-    </row>
-    <row r="154" spans="1:9">
+      <c r="J153" s="28"/>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="18">
         <v>150</v>
       </c>
@@ -3131,8 +3302,9 @@
       <c r="G154" s="20"/>
       <c r="H154" s="21"/>
       <c r="I154" s="25"/>
-    </row>
-    <row r="155" spans="1:9">
+      <c r="J154" s="28"/>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="18">
         <v>151</v>
       </c>
@@ -3144,8 +3316,9 @@
       <c r="G155" s="20"/>
       <c r="H155" s="21"/>
       <c r="I155" s="25"/>
-    </row>
-    <row r="156" spans="1:9">
+      <c r="J155" s="28"/>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="18">
         <v>152</v>
       </c>
@@ -3157,8 +3330,9 @@
       <c r="G156" s="20"/>
       <c r="H156" s="21"/>
       <c r="I156" s="25"/>
-    </row>
-    <row r="157" spans="1:9">
+      <c r="J156" s="28"/>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="18">
         <v>153</v>
       </c>
@@ -3170,8 +3344,9 @@
       <c r="G157" s="20"/>
       <c r="H157" s="21"/>
       <c r="I157" s="25"/>
-    </row>
-    <row r="158" spans="1:9">
+      <c r="J157" s="28"/>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="18">
         <v>154</v>
       </c>
@@ -3183,8 +3358,9 @@
       <c r="G158" s="20"/>
       <c r="H158" s="21"/>
       <c r="I158" s="25"/>
-    </row>
-    <row r="159" spans="1:9">
+      <c r="J158" s="28"/>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="18">
         <v>155</v>
       </c>
@@ -3196,8 +3372,9 @@
       <c r="G159" s="20"/>
       <c r="H159" s="21"/>
       <c r="I159" s="25"/>
-    </row>
-    <row r="160" spans="1:9">
+      <c r="J159" s="28"/>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="18">
         <v>156</v>
       </c>
@@ -3209,8 +3386,9 @@
       <c r="G160" s="20"/>
       <c r="H160" s="21"/>
       <c r="I160" s="25"/>
-    </row>
-    <row r="161" spans="1:9">
+      <c r="J160" s="28"/>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="18">
         <v>157</v>
       </c>
@@ -3222,8 +3400,9 @@
       <c r="G161" s="20"/>
       <c r="H161" s="21"/>
       <c r="I161" s="25"/>
-    </row>
-    <row r="162" spans="1:9">
+      <c r="J161" s="28"/>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="18">
         <v>158</v>
       </c>
@@ -3235,8 +3414,9 @@
       <c r="G162" s="20"/>
       <c r="H162" s="21"/>
       <c r="I162" s="25"/>
-    </row>
-    <row r="163" spans="1:9">
+      <c r="J162" s="28"/>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="18">
         <v>159</v>
       </c>
@@ -3248,8 +3428,9 @@
       <c r="G163" s="20"/>
       <c r="H163" s="21"/>
       <c r="I163" s="25"/>
-    </row>
-    <row r="164" spans="1:9">
+      <c r="J163" s="28"/>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="18">
         <v>160</v>
       </c>
@@ -3261,8 +3442,9 @@
       <c r="G164" s="20"/>
       <c r="H164" s="21"/>
       <c r="I164" s="25"/>
-    </row>
-    <row r="165" spans="1:9">
+      <c r="J164" s="28"/>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="18">
         <v>161</v>
       </c>
@@ -3274,8 +3456,9 @@
       <c r="G165" s="20"/>
       <c r="H165" s="21"/>
       <c r="I165" s="25"/>
-    </row>
-    <row r="166" spans="1:9">
+      <c r="J165" s="28"/>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="18">
         <v>162</v>
       </c>
@@ -3287,8 +3470,9 @@
       <c r="G166" s="20"/>
       <c r="H166" s="21"/>
       <c r="I166" s="25"/>
-    </row>
-    <row r="167" spans="1:9">
+      <c r="J166" s="28"/>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="18">
         <v>163</v>
       </c>
@@ -3300,8 +3484,9 @@
       <c r="G167" s="20"/>
       <c r="H167" s="21"/>
       <c r="I167" s="25"/>
-    </row>
-    <row r="168" spans="1:9">
+      <c r="J167" s="28"/>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="18">
         <v>164</v>
       </c>
@@ -3313,8 +3498,9 @@
       <c r="G168" s="20"/>
       <c r="H168" s="21"/>
       <c r="I168" s="25"/>
-    </row>
-    <row r="169" spans="1:9">
+      <c r="J168" s="28"/>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="18">
         <v>165</v>
       </c>
@@ -3326,8 +3512,9 @@
       <c r="G169" s="20"/>
       <c r="H169" s="21"/>
       <c r="I169" s="25"/>
-    </row>
-    <row r="170" spans="1:9">
+      <c r="J169" s="28"/>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="18">
         <v>166</v>
       </c>
@@ -3339,8 +3526,9 @@
       <c r="G170" s="20"/>
       <c r="H170" s="21"/>
       <c r="I170" s="25"/>
-    </row>
-    <row r="171" spans="1:9">
+      <c r="J170" s="28"/>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="18">
         <v>167</v>
       </c>
@@ -3352,8 +3540,9 @@
       <c r="G171" s="20"/>
       <c r="H171" s="21"/>
       <c r="I171" s="25"/>
-    </row>
-    <row r="172" spans="1:9">
+      <c r="J171" s="28"/>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="18">
         <v>168</v>
       </c>
@@ -3365,8 +3554,9 @@
       <c r="G172" s="20"/>
       <c r="H172" s="21"/>
       <c r="I172" s="25"/>
-    </row>
-    <row r="173" spans="1:9">
+      <c r="J172" s="28"/>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="18">
         <v>169</v>
       </c>
@@ -3378,8 +3568,9 @@
       <c r="G173" s="20"/>
       <c r="H173" s="21"/>
       <c r="I173" s="25"/>
-    </row>
-    <row r="174" spans="1:9">
+      <c r="J173" s="28"/>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="18">
         <v>170</v>
       </c>
@@ -3391,8 +3582,9 @@
       <c r="G174" s="20"/>
       <c r="H174" s="21"/>
       <c r="I174" s="25"/>
-    </row>
-    <row r="175" spans="1:9">
+      <c r="J174" s="28"/>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="18">
         <v>171</v>
       </c>
@@ -3404,8 +3596,9 @@
       <c r="G175" s="20"/>
       <c r="H175" s="21"/>
       <c r="I175" s="25"/>
-    </row>
-    <row r="176" spans="1:9">
+      <c r="J175" s="28"/>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="18">
         <v>172</v>
       </c>
@@ -3417,8 +3610,9 @@
       <c r="G176" s="20"/>
       <c r="H176" s="21"/>
       <c r="I176" s="25"/>
-    </row>
-    <row r="177" spans="1:9">
+      <c r="J176" s="28"/>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="18">
         <v>173</v>
       </c>
@@ -3430,8 +3624,9 @@
       <c r="G177" s="20"/>
       <c r="H177" s="21"/>
       <c r="I177" s="25"/>
-    </row>
-    <row r="178" spans="1:9">
+      <c r="J177" s="28"/>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="18">
         <v>174</v>
       </c>
@@ -3443,8 +3638,9 @@
       <c r="G178" s="20"/>
       <c r="H178" s="21"/>
       <c r="I178" s="25"/>
-    </row>
-    <row r="179" spans="1:9">
+      <c r="J178" s="28"/>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="18">
         <v>175</v>
       </c>
@@ -3456,8 +3652,9 @@
       <c r="G179" s="20"/>
       <c r="H179" s="21"/>
       <c r="I179" s="25"/>
-    </row>
-    <row r="180" spans="1:9">
+      <c r="J179" s="28"/>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="18">
         <v>176</v>
       </c>
@@ -3469,8 +3666,9 @@
       <c r="G180" s="20"/>
       <c r="H180" s="21"/>
       <c r="I180" s="25"/>
-    </row>
-    <row r="181" spans="1:9">
+      <c r="J180" s="28"/>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="18">
         <v>177</v>
       </c>
@@ -3482,8 +3680,9 @@
       <c r="G181" s="20"/>
       <c r="H181" s="21"/>
       <c r="I181" s="25"/>
-    </row>
-    <row r="182" spans="1:9">
+      <c r="J181" s="28"/>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="18">
         <v>178</v>
       </c>
@@ -3495,8 +3694,9 @@
       <c r="G182" s="20"/>
       <c r="H182" s="21"/>
       <c r="I182" s="25"/>
-    </row>
-    <row r="183" spans="1:9">
+      <c r="J182" s="28"/>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="18">
         <v>179</v>
       </c>
@@ -3508,8 +3708,9 @@
       <c r="G183" s="20"/>
       <c r="H183" s="21"/>
       <c r="I183" s="25"/>
-    </row>
-    <row r="184" spans="1:9">
+      <c r="J183" s="28"/>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="18">
         <v>180</v>
       </c>
@@ -3521,8 +3722,9 @@
       <c r="G184" s="20"/>
       <c r="H184" s="21"/>
       <c r="I184" s="25"/>
-    </row>
-    <row r="185" spans="1:9">
+      <c r="J184" s="28"/>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="18">
         <v>181</v>
       </c>
@@ -3534,8 +3736,9 @@
       <c r="G185" s="20"/>
       <c r="H185" s="21"/>
       <c r="I185" s="25"/>
-    </row>
-    <row r="186" spans="1:9">
+      <c r="J185" s="28"/>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="18">
         <v>182</v>
       </c>
@@ -3547,8 +3750,9 @@
       <c r="G186" s="20"/>
       <c r="H186" s="21"/>
       <c r="I186" s="25"/>
-    </row>
-    <row r="187" spans="1:9">
+      <c r="J186" s="28"/>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="18">
         <v>183</v>
       </c>
@@ -3560,8 +3764,9 @@
       <c r="G187" s="20"/>
       <c r="H187" s="21"/>
       <c r="I187" s="25"/>
-    </row>
-    <row r="188" spans="1:9">
+      <c r="J187" s="28"/>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="18">
         <v>184</v>
       </c>
@@ -3573,8 +3778,9 @@
       <c r="G188" s="20"/>
       <c r="H188" s="21"/>
       <c r="I188" s="25"/>
-    </row>
-    <row r="189" spans="1:9">
+      <c r="J188" s="28"/>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="18">
         <v>185</v>
       </c>
@@ -3586,8 +3792,9 @@
       <c r="G189" s="20"/>
       <c r="H189" s="21"/>
       <c r="I189" s="25"/>
-    </row>
-    <row r="190" spans="1:9">
+      <c r="J189" s="28"/>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="18">
         <v>186</v>
       </c>
@@ -3599,8 +3806,9 @@
       <c r="G190" s="20"/>
       <c r="H190" s="21"/>
       <c r="I190" s="25"/>
-    </row>
-    <row r="191" spans="1:9">
+      <c r="J190" s="28"/>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="18">
         <v>187</v>
       </c>
@@ -3612,8 +3820,9 @@
       <c r="G191" s="20"/>
       <c r="H191" s="21"/>
       <c r="I191" s="25"/>
-    </row>
-    <row r="192" spans="1:9">
+      <c r="J191" s="28"/>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="18">
         <v>188</v>
       </c>
@@ -3625,8 +3834,9 @@
       <c r="G192" s="20"/>
       <c r="H192" s="21"/>
       <c r="I192" s="25"/>
-    </row>
-    <row r="193" spans="1:9">
+      <c r="J192" s="28"/>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="18">
         <v>189</v>
       </c>
@@ -3638,8 +3848,9 @@
       <c r="G193" s="20"/>
       <c r="H193" s="21"/>
       <c r="I193" s="25"/>
-    </row>
-    <row r="194" spans="1:9">
+      <c r="J193" s="28"/>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="18">
         <v>190</v>
       </c>
@@ -3651,8 +3862,9 @@
       <c r="G194" s="20"/>
       <c r="H194" s="21"/>
       <c r="I194" s="25"/>
-    </row>
-    <row r="195" spans="1:9">
+      <c r="J194" s="28"/>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="18">
         <v>191</v>
       </c>
@@ -3664,8 +3876,9 @@
       <c r="G195" s="20"/>
       <c r="H195" s="21"/>
       <c r="I195" s="25"/>
-    </row>
-    <row r="196" spans="1:9">
+      <c r="J195" s="28"/>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="18">
         <v>192</v>
       </c>
@@ -3677,8 +3890,9 @@
       <c r="G196" s="20"/>
       <c r="H196" s="21"/>
       <c r="I196" s="25"/>
-    </row>
-    <row r="197" spans="1:9">
+      <c r="J196" s="28"/>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="18">
         <v>193</v>
       </c>
@@ -3690,8 +3904,9 @@
       <c r="G197" s="20"/>
       <c r="H197" s="21"/>
       <c r="I197" s="25"/>
-    </row>
-    <row r="198" spans="1:9">
+      <c r="J197" s="28"/>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="18">
         <v>194</v>
       </c>
@@ -3703,8 +3918,9 @@
       <c r="G198" s="20"/>
       <c r="H198" s="21"/>
       <c r="I198" s="25"/>
-    </row>
-    <row r="199" spans="1:9">
+      <c r="J198" s="28"/>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="18">
         <v>195</v>
       </c>
@@ -3716,8 +3932,9 @@
       <c r="G199" s="20"/>
       <c r="H199" s="21"/>
       <c r="I199" s="25"/>
-    </row>
-    <row r="200" spans="1:9">
+      <c r="J199" s="28"/>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="18">
         <v>196</v>
       </c>
@@ -3729,8 +3946,9 @@
       <c r="G200" s="20"/>
       <c r="H200" s="21"/>
       <c r="I200" s="25"/>
-    </row>
-    <row r="201" spans="1:9">
+      <c r="J200" s="28"/>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="18">
         <v>197</v>
       </c>
@@ -3742,8 +3960,9 @@
       <c r="G201" s="20"/>
       <c r="H201" s="21"/>
       <c r="I201" s="25"/>
-    </row>
-    <row r="202" spans="1:9">
+      <c r="J201" s="28"/>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" s="18">
         <v>198</v>
       </c>
@@ -3755,8 +3974,9 @@
       <c r="G202" s="20"/>
       <c r="H202" s="21"/>
       <c r="I202" s="25"/>
-    </row>
-    <row r="203" spans="1:9">
+      <c r="J202" s="28"/>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" s="18">
         <v>199</v>
       </c>
@@ -3768,8 +3988,9 @@
       <c r="G203" s="20"/>
       <c r="H203" s="21"/>
       <c r="I203" s="25"/>
-    </row>
-    <row r="204" spans="1:9">
+      <c r="J203" s="28"/>
+    </row>
+    <row r="204" spans="1:10">
       <c r="A204" s="18">
         <v>200</v>
       </c>
@@ -3781,8 +4002,9 @@
       <c r="G204" s="20"/>
       <c r="H204" s="21"/>
       <c r="I204" s="25"/>
-    </row>
-    <row r="205" spans="1:9">
+      <c r="J204" s="28"/>
+    </row>
+    <row r="205" spans="1:10">
       <c r="A205" s="18">
         <v>201</v>
       </c>
@@ -3794,8 +4016,9 @@
       <c r="G205" s="20"/>
       <c r="H205" s="21"/>
       <c r="I205" s="25"/>
-    </row>
-    <row r="206" spans="1:9">
+      <c r="J205" s="28"/>
+    </row>
+    <row r="206" spans="1:10">
       <c r="A206" s="18">
         <v>202</v>
       </c>
@@ -3807,8 +4030,9 @@
       <c r="G206" s="20"/>
       <c r="H206" s="21"/>
       <c r="I206" s="25"/>
-    </row>
-    <row r="207" spans="1:9">
+      <c r="J206" s="28"/>
+    </row>
+    <row r="207" spans="1:10">
       <c r="A207" s="18">
         <v>203</v>
       </c>
@@ -3820,8 +4044,9 @@
       <c r="G207" s="20"/>
       <c r="H207" s="21"/>
       <c r="I207" s="25"/>
-    </row>
-    <row r="208" spans="1:9">
+      <c r="J207" s="28"/>
+    </row>
+    <row r="208" spans="1:10">
       <c r="A208" s="18">
         <v>204</v>
       </c>
@@ -3833,8 +4058,9 @@
       <c r="G208" s="20"/>
       <c r="H208" s="21"/>
       <c r="I208" s="25"/>
-    </row>
-    <row r="209" spans="1:9">
+      <c r="J208" s="28"/>
+    </row>
+    <row r="209" spans="1:10">
       <c r="A209" s="18">
         <v>205</v>
       </c>
@@ -3846,8 +4072,9 @@
       <c r="G209" s="20"/>
       <c r="H209" s="21"/>
       <c r="I209" s="25"/>
-    </row>
-    <row r="210" spans="1:9">
+      <c r="J209" s="28"/>
+    </row>
+    <row r="210" spans="1:10">
       <c r="A210" s="18">
         <v>206</v>
       </c>
@@ -3859,8 +4086,9 @@
       <c r="G210" s="20"/>
       <c r="H210" s="21"/>
       <c r="I210" s="25"/>
-    </row>
-    <row r="211" spans="1:9">
+      <c r="J210" s="28"/>
+    </row>
+    <row r="211" spans="1:10">
       <c r="A211" s="18">
         <v>207</v>
       </c>
@@ -3872,8 +4100,9 @@
       <c r="G211" s="20"/>
       <c r="H211" s="21"/>
       <c r="I211" s="25"/>
-    </row>
-    <row r="212" spans="1:9">
+      <c r="J211" s="28"/>
+    </row>
+    <row r="212" spans="1:10">
       <c r="A212" s="18">
         <v>208</v>
       </c>
@@ -3885,8 +4114,9 @@
       <c r="G212" s="20"/>
       <c r="H212" s="21"/>
       <c r="I212" s="25"/>
-    </row>
-    <row r="213" spans="1:9">
+      <c r="J212" s="28"/>
+    </row>
+    <row r="213" spans="1:10">
       <c r="A213" s="18">
         <v>209</v>
       </c>
@@ -3898,8 +4128,9 @@
       <c r="G213" s="20"/>
       <c r="H213" s="21"/>
       <c r="I213" s="25"/>
-    </row>
-    <row r="214" spans="1:9">
+      <c r="J213" s="28"/>
+    </row>
+    <row r="214" spans="1:10">
       <c r="A214" s="18">
         <v>210</v>
       </c>
@@ -3911,8 +4142,9 @@
       <c r="G214" s="20"/>
       <c r="H214" s="21"/>
       <c r="I214" s="25"/>
-    </row>
-    <row r="215" spans="1:9">
+      <c r="J214" s="28"/>
+    </row>
+    <row r="215" spans="1:10">
       <c r="A215" s="18">
         <v>211</v>
       </c>
@@ -3924,8 +4156,9 @@
       <c r="G215" s="20"/>
       <c r="H215" s="21"/>
       <c r="I215" s="25"/>
-    </row>
-    <row r="216" spans="1:9">
+      <c r="J215" s="28"/>
+    </row>
+    <row r="216" spans="1:10">
       <c r="A216" s="18">
         <v>212</v>
       </c>
@@ -3937,8 +4170,9 @@
       <c r="G216" s="20"/>
       <c r="H216" s="21"/>
       <c r="I216" s="25"/>
-    </row>
-    <row r="217" spans="1:9">
+      <c r="J216" s="28"/>
+    </row>
+    <row r="217" spans="1:10">
       <c r="A217" s="18">
         <v>213</v>
       </c>
@@ -3950,8 +4184,9 @@
       <c r="G217" s="20"/>
       <c r="H217" s="21"/>
       <c r="I217" s="25"/>
-    </row>
-    <row r="218" spans="1:9">
+      <c r="J217" s="28"/>
+    </row>
+    <row r="218" spans="1:10">
       <c r="A218" s="18">
         <v>214</v>
       </c>
@@ -3963,8 +4198,9 @@
       <c r="G218" s="20"/>
       <c r="H218" s="21"/>
       <c r="I218" s="25"/>
-    </row>
-    <row r="219" spans="1:9">
+      <c r="J218" s="28"/>
+    </row>
+    <row r="219" spans="1:10">
       <c r="A219" s="18">
         <v>215</v>
       </c>
@@ -3976,8 +4212,9 @@
       <c r="G219" s="20"/>
       <c r="H219" s="21"/>
       <c r="I219" s="25"/>
-    </row>
-    <row r="220" spans="1:9">
+      <c r="J219" s="28"/>
+    </row>
+    <row r="220" spans="1:10">
       <c r="A220" s="18">
         <v>216</v>
       </c>
@@ -3989,8 +4226,9 @@
       <c r="G220" s="20"/>
       <c r="H220" s="21"/>
       <c r="I220" s="25"/>
-    </row>
-    <row r="221" spans="1:9">
+      <c r="J220" s="28"/>
+    </row>
+    <row r="221" spans="1:10">
       <c r="A221" s="18">
         <v>217</v>
       </c>
@@ -4002,8 +4240,9 @@
       <c r="G221" s="20"/>
       <c r="H221" s="21"/>
       <c r="I221" s="25"/>
-    </row>
-    <row r="222" spans="1:9">
+      <c r="J221" s="28"/>
+    </row>
+    <row r="222" spans="1:10">
       <c r="A222" s="18">
         <v>218</v>
       </c>
@@ -4015,8 +4254,9 @@
       <c r="G222" s="20"/>
       <c r="H222" s="21"/>
       <c r="I222" s="25"/>
-    </row>
-    <row r="223" spans="1:9">
+      <c r="J222" s="28"/>
+    </row>
+    <row r="223" spans="1:10">
       <c r="A223" s="18">
         <v>219</v>
       </c>
@@ -4028,8 +4268,9 @@
       <c r="G223" s="20"/>
       <c r="H223" s="21"/>
       <c r="I223" s="25"/>
-    </row>
-    <row r="224" spans="1:9">
+      <c r="J223" s="28"/>
+    </row>
+    <row r="224" spans="1:10">
       <c r="A224" s="18">
         <v>220</v>
       </c>
@@ -4041,8 +4282,9 @@
       <c r="G224" s="20"/>
       <c r="H224" s="21"/>
       <c r="I224" s="25"/>
-    </row>
-    <row r="225" spans="1:9">
+      <c r="J224" s="28"/>
+    </row>
+    <row r="225" spans="1:10">
       <c r="A225" s="18">
         <v>221</v>
       </c>
@@ -4054,8 +4296,9 @@
       <c r="G225" s="20"/>
       <c r="H225" s="21"/>
       <c r="I225" s="25"/>
-    </row>
-    <row r="226" spans="1:9">
+      <c r="J225" s="28"/>
+    </row>
+    <row r="226" spans="1:10">
       <c r="A226" s="18">
         <v>222</v>
       </c>
@@ -4067,8 +4310,9 @@
       <c r="G226" s="20"/>
       <c r="H226" s="21"/>
       <c r="I226" s="25"/>
-    </row>
-    <row r="227" spans="1:9">
+      <c r="J226" s="28"/>
+    </row>
+    <row r="227" spans="1:10">
       <c r="A227" s="18">
         <v>223</v>
       </c>
@@ -4080,8 +4324,9 @@
       <c r="G227" s="20"/>
       <c r="H227" s="21"/>
       <c r="I227" s="25"/>
-    </row>
-    <row r="228" spans="1:9">
+      <c r="J227" s="28"/>
+    </row>
+    <row r="228" spans="1:10">
       <c r="A228" s="18">
         <v>224</v>
       </c>
@@ -4093,8 +4338,9 @@
       <c r="G228" s="20"/>
       <c r="H228" s="21"/>
       <c r="I228" s="25"/>
-    </row>
-    <row r="229" spans="1:9">
+      <c r="J228" s="28"/>
+    </row>
+    <row r="229" spans="1:10">
       <c r="A229" s="18">
         <v>225</v>
       </c>
@@ -4106,8 +4352,9 @@
       <c r="G229" s="20"/>
       <c r="H229" s="21"/>
       <c r="I229" s="25"/>
-    </row>
-    <row r="230" spans="1:9">
+      <c r="J229" s="28"/>
+    </row>
+    <row r="230" spans="1:10">
       <c r="A230" s="18">
         <v>226</v>
       </c>
@@ -4119,8 +4366,9 @@
       <c r="G230" s="20"/>
       <c r="H230" s="21"/>
       <c r="I230" s="25"/>
-    </row>
-    <row r="231" spans="1:9">
+      <c r="J230" s="28"/>
+    </row>
+    <row r="231" spans="1:10">
       <c r="A231" s="18">
         <v>227</v>
       </c>
@@ -4132,8 +4380,9 @@
       <c r="G231" s="20"/>
       <c r="H231" s="21"/>
       <c r="I231" s="25"/>
-    </row>
-    <row r="232" spans="1:9">
+      <c r="J231" s="28"/>
+    </row>
+    <row r="232" spans="1:10">
       <c r="A232" s="18">
         <v>228</v>
       </c>
@@ -4145,8 +4394,9 @@
       <c r="G232" s="20"/>
       <c r="H232" s="21"/>
       <c r="I232" s="25"/>
-    </row>
-    <row r="233" spans="1:9">
+      <c r="J232" s="28"/>
+    </row>
+    <row r="233" spans="1:10">
       <c r="A233" s="18">
         <v>229</v>
       </c>
@@ -4158,8 +4408,9 @@
       <c r="G233" s="20"/>
       <c r="H233" s="21"/>
       <c r="I233" s="25"/>
-    </row>
-    <row r="234" spans="1:9">
+      <c r="J233" s="28"/>
+    </row>
+    <row r="234" spans="1:10">
       <c r="A234" s="18">
         <v>230</v>
       </c>
@@ -4171,8 +4422,9 @@
       <c r="G234" s="20"/>
       <c r="H234" s="21"/>
       <c r="I234" s="25"/>
-    </row>
-    <row r="235" spans="1:9">
+      <c r="J234" s="28"/>
+    </row>
+    <row r="235" spans="1:10">
       <c r="A235" s="18">
         <v>231</v>
       </c>
@@ -4184,8 +4436,9 @@
       <c r="G235" s="20"/>
       <c r="H235" s="21"/>
       <c r="I235" s="25"/>
-    </row>
-    <row r="236" spans="1:9">
+      <c r="J235" s="28"/>
+    </row>
+    <row r="236" spans="1:10">
       <c r="A236" s="18">
         <v>232</v>
       </c>
@@ -4197,8 +4450,9 @@
       <c r="G236" s="20"/>
       <c r="H236" s="21"/>
       <c r="I236" s="25"/>
-    </row>
-    <row r="237" spans="1:9">
+      <c r="J236" s="28"/>
+    </row>
+    <row r="237" spans="1:10">
       <c r="A237" s="18">
         <v>233</v>
       </c>
@@ -4210,8 +4464,9 @@
       <c r="G237" s="20"/>
       <c r="H237" s="21"/>
       <c r="I237" s="25"/>
-    </row>
-    <row r="238" spans="1:9">
+      <c r="J237" s="28"/>
+    </row>
+    <row r="238" spans="1:10">
       <c r="A238" s="18">
         <v>234</v>
       </c>
@@ -4223,8 +4478,9 @@
       <c r="G238" s="20"/>
       <c r="H238" s="21"/>
       <c r="I238" s="25"/>
-    </row>
-    <row r="239" spans="1:9">
+      <c r="J238" s="28"/>
+    </row>
+    <row r="239" spans="1:10">
       <c r="A239" s="18">
         <v>235</v>
       </c>
@@ -4236,8 +4492,9 @@
       <c r="G239" s="20"/>
       <c r="H239" s="21"/>
       <c r="I239" s="25"/>
-    </row>
-    <row r="240" spans="1:9">
+      <c r="J239" s="28"/>
+    </row>
+    <row r="240" spans="1:10">
       <c r="A240" s="18">
         <v>236</v>
       </c>
@@ -4249,8 +4506,9 @@
       <c r="G240" s="20"/>
       <c r="H240" s="21"/>
       <c r="I240" s="25"/>
-    </row>
-    <row r="241" spans="1:9">
+      <c r="J240" s="28"/>
+    </row>
+    <row r="241" spans="1:10">
       <c r="A241" s="18">
         <v>237</v>
       </c>
@@ -4262,8 +4520,9 @@
       <c r="G241" s="20"/>
       <c r="H241" s="21"/>
       <c r="I241" s="25"/>
-    </row>
-    <row r="242" spans="1:9">
+      <c r="J241" s="28"/>
+    </row>
+    <row r="242" spans="1:10">
       <c r="A242" s="18">
         <v>238</v>
       </c>
@@ -4275,8 +4534,9 @@
       <c r="G242" s="20"/>
       <c r="H242" s="21"/>
       <c r="I242" s="25"/>
-    </row>
-    <row r="243" spans="1:9">
+      <c r="J242" s="28"/>
+    </row>
+    <row r="243" spans="1:10">
       <c r="A243" s="18">
         <v>239</v>
       </c>
@@ -4288,8 +4548,9 @@
       <c r="G243" s="20"/>
       <c r="H243" s="21"/>
       <c r="I243" s="25"/>
-    </row>
-    <row r="244" spans="1:9">
+      <c r="J243" s="28"/>
+    </row>
+    <row r="244" spans="1:10">
       <c r="A244" s="18">
         <v>240</v>
       </c>
@@ -4301,8 +4562,9 @@
       <c r="G244" s="20"/>
       <c r="H244" s="21"/>
       <c r="I244" s="25"/>
-    </row>
-    <row r="245" spans="1:9">
+      <c r="J244" s="28"/>
+    </row>
+    <row r="245" spans="1:10">
       <c r="A245" s="18">
         <v>241</v>
       </c>
@@ -4314,8 +4576,9 @@
       <c r="G245" s="20"/>
       <c r="H245" s="21"/>
       <c r="I245" s="25"/>
-    </row>
-    <row r="246" spans="1:9">
+      <c r="J245" s="28"/>
+    </row>
+    <row r="246" spans="1:10">
       <c r="A246" s="18">
         <v>242</v>
       </c>
@@ -4327,8 +4590,9 @@
       <c r="G246" s="20"/>
       <c r="H246" s="21"/>
       <c r="I246" s="25"/>
-    </row>
-    <row r="247" spans="1:9">
+      <c r="J246" s="28"/>
+    </row>
+    <row r="247" spans="1:10">
       <c r="A247" s="18">
         <v>243</v>
       </c>
@@ -4340,8 +4604,9 @@
       <c r="G247" s="20"/>
       <c r="H247" s="21"/>
       <c r="I247" s="25"/>
-    </row>
-    <row r="248" spans="1:9">
+      <c r="J247" s="28"/>
+    </row>
+    <row r="248" spans="1:10">
       <c r="A248" s="18">
         <v>244</v>
       </c>
@@ -4353,8 +4618,9 @@
       <c r="G248" s="20"/>
       <c r="H248" s="21"/>
       <c r="I248" s="25"/>
-    </row>
-    <row r="249" spans="1:9">
+      <c r="J248" s="28"/>
+    </row>
+    <row r="249" spans="1:10">
       <c r="A249" s="18">
         <v>245</v>
       </c>
@@ -4366,8 +4632,9 @@
       <c r="G249" s="20"/>
       <c r="H249" s="21"/>
       <c r="I249" s="25"/>
-    </row>
-    <row r="250" spans="1:9">
+      <c r="J249" s="28"/>
+    </row>
+    <row r="250" spans="1:10">
       <c r="A250" s="18">
         <v>246</v>
       </c>
@@ -4379,8 +4646,9 @@
       <c r="G250" s="20"/>
       <c r="H250" s="21"/>
       <c r="I250" s="25"/>
-    </row>
-    <row r="251" spans="1:9">
+      <c r="J250" s="28"/>
+    </row>
+    <row r="251" spans="1:10">
       <c r="A251" s="18">
         <v>247</v>
       </c>
@@ -4392,8 +4660,9 @@
       <c r="G251" s="20"/>
       <c r="H251" s="21"/>
       <c r="I251" s="25"/>
-    </row>
-    <row r="252" spans="1:9">
+      <c r="J251" s="28"/>
+    </row>
+    <row r="252" spans="1:10">
       <c r="A252" s="18">
         <v>248</v>
       </c>
@@ -4405,8 +4674,9 @@
       <c r="G252" s="20"/>
       <c r="H252" s="21"/>
       <c r="I252" s="25"/>
-    </row>
-    <row r="253" spans="1:9">
+      <c r="J252" s="28"/>
+    </row>
+    <row r="253" spans="1:10">
       <c r="A253" s="18">
         <v>249</v>
       </c>
@@ -4418,8 +4688,9 @@
       <c r="G253" s="20"/>
       <c r="H253" s="21"/>
       <c r="I253" s="25"/>
-    </row>
-    <row r="254" spans="1:9">
+      <c r="J253" s="28"/>
+    </row>
+    <row r="254" spans="1:10">
       <c r="A254" s="18">
         <v>250</v>
       </c>
@@ -4431,8 +4702,9 @@
       <c r="G254" s="20"/>
       <c r="H254" s="21"/>
       <c r="I254" s="25"/>
-    </row>
-    <row r="255" spans="1:9">
+      <c r="J254" s="28"/>
+    </row>
+    <row r="255" spans="1:10">
       <c r="A255" s="18">
         <v>251</v>
       </c>
@@ -4444,8 +4716,9 @@
       <c r="G255" s="20"/>
       <c r="H255" s="21"/>
       <c r="I255" s="25"/>
-    </row>
-    <row r="256" spans="1:9">
+      <c r="J255" s="28"/>
+    </row>
+    <row r="256" spans="1:10">
       <c r="A256" s="18">
         <v>252</v>
       </c>
@@ -4457,8 +4730,9 @@
       <c r="G256" s="20"/>
       <c r="H256" s="21"/>
       <c r="I256" s="25"/>
-    </row>
-    <row r="257" spans="1:9">
+      <c r="J256" s="28"/>
+    </row>
+    <row r="257" spans="1:10">
       <c r="A257" s="18">
         <v>253</v>
       </c>
@@ -4470,8 +4744,9 @@
       <c r="G257" s="20"/>
       <c r="H257" s="21"/>
       <c r="I257" s="25"/>
-    </row>
-    <row r="258" spans="1:9">
+      <c r="J257" s="28"/>
+    </row>
+    <row r="258" spans="1:10">
       <c r="A258" s="18">
         <v>254</v>
       </c>
@@ -4483,8 +4758,9 @@
       <c r="G258" s="20"/>
       <c r="H258" s="21"/>
       <c r="I258" s="25"/>
-    </row>
-    <row r="259" spans="1:9">
+      <c r="J258" s="28"/>
+    </row>
+    <row r="259" spans="1:10">
       <c r="A259" s="18">
         <v>255</v>
       </c>
@@ -4496,8 +4772,9 @@
       <c r="G259" s="20"/>
       <c r="H259" s="21"/>
       <c r="I259" s="25"/>
-    </row>
-    <row r="260" spans="1:9">
+      <c r="J259" s="28"/>
+    </row>
+    <row r="260" spans="1:10">
       <c r="A260" s="18">
         <v>256</v>
       </c>
@@ -4509,8 +4786,9 @@
       <c r="G260" s="20"/>
       <c r="H260" s="21"/>
       <c r="I260" s="25"/>
-    </row>
-    <row r="261" spans="1:9">
+      <c r="J260" s="28"/>
+    </row>
+    <row r="261" spans="1:10">
       <c r="A261" s="18">
         <v>257</v>
       </c>
@@ -4522,8 +4800,9 @@
       <c r="G261" s="20"/>
       <c r="H261" s="21"/>
       <c r="I261" s="25"/>
-    </row>
-    <row r="262" spans="1:9">
+      <c r="J261" s="28"/>
+    </row>
+    <row r="262" spans="1:10">
       <c r="A262" s="18">
         <v>258</v>
       </c>
@@ -4535,8 +4814,9 @@
       <c r="G262" s="20"/>
       <c r="H262" s="21"/>
       <c r="I262" s="25"/>
-    </row>
-    <row r="263" spans="1:9">
+      <c r="J262" s="28"/>
+    </row>
+    <row r="263" spans="1:10">
       <c r="A263" s="18">
         <v>259</v>
       </c>
@@ -4548,8 +4828,9 @@
       <c r="G263" s="20"/>
       <c r="H263" s="21"/>
       <c r="I263" s="25"/>
-    </row>
-    <row r="264" spans="1:9">
+      <c r="J263" s="28"/>
+    </row>
+    <row r="264" spans="1:10">
       <c r="A264" s="18">
         <v>260</v>
       </c>
@@ -4561,8 +4842,9 @@
       <c r="G264" s="20"/>
       <c r="H264" s="21"/>
       <c r="I264" s="25"/>
-    </row>
-    <row r="265" spans="1:9">
+      <c r="J264" s="28"/>
+    </row>
+    <row r="265" spans="1:10">
       <c r="A265" s="18">
         <v>261</v>
       </c>
@@ -4574,8 +4856,9 @@
       <c r="G265" s="20"/>
       <c r="H265" s="21"/>
       <c r="I265" s="25"/>
-    </row>
-    <row r="266" spans="1:9">
+      <c r="J265" s="28"/>
+    </row>
+    <row r="266" spans="1:10">
       <c r="A266" s="18">
         <v>262</v>
       </c>
@@ -4587,8 +4870,9 @@
       <c r="G266" s="20"/>
       <c r="H266" s="21"/>
       <c r="I266" s="25"/>
-    </row>
-    <row r="267" spans="1:9">
+      <c r="J266" s="28"/>
+    </row>
+    <row r="267" spans="1:10">
       <c r="A267" s="18">
         <v>263</v>
       </c>
@@ -4600,8 +4884,9 @@
       <c r="G267" s="20"/>
       <c r="H267" s="21"/>
       <c r="I267" s="25"/>
-    </row>
-    <row r="268" spans="1:9">
+      <c r="J267" s="28"/>
+    </row>
+    <row r="268" spans="1:10">
       <c r="A268" s="18">
         <v>264</v>
       </c>
@@ -4613,8 +4898,9 @@
       <c r="G268" s="20"/>
       <c r="H268" s="21"/>
       <c r="I268" s="25"/>
-    </row>
-    <row r="269" spans="1:9">
+      <c r="J268" s="28"/>
+    </row>
+    <row r="269" spans="1:10">
       <c r="A269" s="18">
         <v>265</v>
       </c>
@@ -4626,8 +4912,9 @@
       <c r="G269" s="20"/>
       <c r="H269" s="21"/>
       <c r="I269" s="25"/>
-    </row>
-    <row r="270" spans="1:9">
+      <c r="J269" s="28"/>
+    </row>
+    <row r="270" spans="1:10">
       <c r="A270" s="18">
         <v>266</v>
       </c>
@@ -4639,8 +4926,9 @@
       <c r="G270" s="20"/>
       <c r="H270" s="21"/>
       <c r="I270" s="25"/>
-    </row>
-    <row r="271" spans="1:9">
+      <c r="J270" s="28"/>
+    </row>
+    <row r="271" spans="1:10">
       <c r="A271" s="18">
         <v>267</v>
       </c>
@@ -4652,8 +4940,9 @@
       <c r="G271" s="20"/>
       <c r="H271" s="21"/>
       <c r="I271" s="25"/>
-    </row>
-    <row r="272" spans="1:9">
+      <c r="J271" s="28"/>
+    </row>
+    <row r="272" spans="1:10">
       <c r="A272" s="18">
         <v>268</v>
       </c>
@@ -4665,8 +4954,9 @@
       <c r="G272" s="20"/>
       <c r="H272" s="21"/>
       <c r="I272" s="25"/>
-    </row>
-    <row r="273" spans="1:9">
+      <c r="J272" s="28"/>
+    </row>
+    <row r="273" spans="1:10">
       <c r="A273" s="18">
         <v>269</v>
       </c>
@@ -4678,8 +4968,9 @@
       <c r="G273" s="20"/>
       <c r="H273" s="21"/>
       <c r="I273" s="25"/>
-    </row>
-    <row r="274" spans="1:9">
+      <c r="J273" s="28"/>
+    </row>
+    <row r="274" spans="1:10">
       <c r="A274" s="18">
         <v>270</v>
       </c>
@@ -4691,8 +4982,9 @@
       <c r="G274" s="20"/>
       <c r="H274" s="21"/>
       <c r="I274" s="25"/>
-    </row>
-    <row r="275" spans="1:9">
+      <c r="J274" s="28"/>
+    </row>
+    <row r="275" spans="1:10">
       <c r="A275" s="18">
         <v>271</v>
       </c>
@@ -4704,8 +4996,9 @@
       <c r="G275" s="20"/>
       <c r="H275" s="21"/>
       <c r="I275" s="25"/>
-    </row>
-    <row r="276" spans="1:9">
+      <c r="J275" s="28"/>
+    </row>
+    <row r="276" spans="1:10">
       <c r="A276" s="18">
         <v>272</v>
       </c>
@@ -4717,8 +5010,9 @@
       <c r="G276" s="20"/>
       <c r="H276" s="21"/>
       <c r="I276" s="25"/>
-    </row>
-    <row r="277" spans="1:9">
+      <c r="J276" s="28"/>
+    </row>
+    <row r="277" spans="1:10">
       <c r="A277" s="18">
         <v>273</v>
       </c>
@@ -4730,8 +5024,9 @@
       <c r="G277" s="20"/>
       <c r="H277" s="21"/>
       <c r="I277" s="25"/>
-    </row>
-    <row r="278" spans="1:9">
+      <c r="J277" s="28"/>
+    </row>
+    <row r="278" spans="1:10">
       <c r="A278" s="18">
         <v>274</v>
       </c>
@@ -4743,8 +5038,9 @@
       <c r="G278" s="20"/>
       <c r="H278" s="21"/>
       <c r="I278" s="25"/>
-    </row>
-    <row r="279" spans="1:9">
+      <c r="J278" s="28"/>
+    </row>
+    <row r="279" spans="1:10">
       <c r="A279" s="18">
         <v>275</v>
       </c>
@@ -4756,8 +5052,9 @@
       <c r="G279" s="20"/>
       <c r="H279" s="21"/>
       <c r="I279" s="25"/>
-    </row>
-    <row r="280" spans="1:9">
+      <c r="J279" s="28"/>
+    </row>
+    <row r="280" spans="1:10">
       <c r="A280" s="18">
         <v>276</v>
       </c>
@@ -4769,8 +5066,9 @@
       <c r="G280" s="20"/>
       <c r="H280" s="21"/>
       <c r="I280" s="25"/>
-    </row>
-    <row r="281" spans="1:9">
+      <c r="J280" s="28"/>
+    </row>
+    <row r="281" spans="1:10">
       <c r="A281" s="18">
         <v>277</v>
       </c>
@@ -4782,8 +5080,9 @@
       <c r="G281" s="20"/>
       <c r="H281" s="21"/>
       <c r="I281" s="25"/>
-    </row>
-    <row r="282" spans="1:9">
+      <c r="J281" s="28"/>
+    </row>
+    <row r="282" spans="1:10">
       <c r="A282" s="18">
         <v>278</v>
       </c>
@@ -4795,8 +5094,9 @@
       <c r="G282" s="20"/>
       <c r="H282" s="21"/>
       <c r="I282" s="25"/>
-    </row>
-    <row r="283" spans="1:9">
+      <c r="J282" s="28"/>
+    </row>
+    <row r="283" spans="1:10">
       <c r="A283" s="18">
         <v>279</v>
       </c>
@@ -4808,8 +5108,9 @@
       <c r="G283" s="20"/>
       <c r="H283" s="21"/>
       <c r="I283" s="25"/>
-    </row>
-    <row r="284" spans="1:9">
+      <c r="J283" s="28"/>
+    </row>
+    <row r="284" spans="1:10">
       <c r="A284" s="18">
         <v>280</v>
       </c>
@@ -4821,8 +5122,9 @@
       <c r="G284" s="20"/>
       <c r="H284" s="21"/>
       <c r="I284" s="25"/>
-    </row>
-    <row r="285" spans="1:9">
+      <c r="J284" s="28"/>
+    </row>
+    <row r="285" spans="1:10">
       <c r="A285" s="18">
         <v>281</v>
       </c>
@@ -4834,8 +5136,9 @@
       <c r="G285" s="20"/>
       <c r="H285" s="21"/>
       <c r="I285" s="25"/>
-    </row>
-    <row r="286" spans="1:9">
+      <c r="J285" s="28"/>
+    </row>
+    <row r="286" spans="1:10">
       <c r="A286" s="18">
         <v>282</v>
       </c>
@@ -4847,8 +5150,9 @@
       <c r="G286" s="20"/>
       <c r="H286" s="21"/>
       <c r="I286" s="25"/>
-    </row>
-    <row r="287" spans="1:9">
+      <c r="J286" s="28"/>
+    </row>
+    <row r="287" spans="1:10">
       <c r="A287" s="18">
         <v>283</v>
       </c>
@@ -4860,8 +5164,9 @@
       <c r="G287" s="20"/>
       <c r="H287" s="21"/>
       <c r="I287" s="25"/>
-    </row>
-    <row r="288" spans="1:9">
+      <c r="J287" s="28"/>
+    </row>
+    <row r="288" spans="1:10">
       <c r="A288" s="18">
         <v>284</v>
       </c>
@@ -4873,8 +5178,9 @@
       <c r="G288" s="20"/>
       <c r="H288" s="21"/>
       <c r="I288" s="25"/>
-    </row>
-    <row r="289" spans="1:9">
+      <c r="J288" s="28"/>
+    </row>
+    <row r="289" spans="1:10">
       <c r="A289" s="18">
         <v>285</v>
       </c>
@@ -4886,8 +5192,9 @@
       <c r="G289" s="20"/>
       <c r="H289" s="21"/>
       <c r="I289" s="25"/>
-    </row>
-    <row r="290" spans="1:9">
+      <c r="J289" s="28"/>
+    </row>
+    <row r="290" spans="1:10">
       <c r="A290" s="18">
         <v>286</v>
       </c>
@@ -4899,8 +5206,9 @@
       <c r="G290" s="20"/>
       <c r="H290" s="21"/>
       <c r="I290" s="25"/>
-    </row>
-    <row r="291" spans="1:9">
+      <c r="J290" s="28"/>
+    </row>
+    <row r="291" spans="1:10">
       <c r="A291" s="18">
         <v>287</v>
       </c>
@@ -4912,8 +5220,9 @@
       <c r="G291" s="20"/>
       <c r="H291" s="21"/>
       <c r="I291" s="25"/>
-    </row>
-    <row r="292" spans="1:9">
+      <c r="J291" s="28"/>
+    </row>
+    <row r="292" spans="1:10">
       <c r="A292" s="18">
         <v>288</v>
       </c>
@@ -4925,8 +5234,9 @@
       <c r="G292" s="20"/>
       <c r="H292" s="21"/>
       <c r="I292" s="25"/>
-    </row>
-    <row r="293" spans="1:9">
+      <c r="J292" s="28"/>
+    </row>
+    <row r="293" spans="1:10">
       <c r="A293" s="18">
         <v>289</v>
       </c>
@@ -4938,8 +5248,9 @@
       <c r="G293" s="20"/>
       <c r="H293" s="21"/>
       <c r="I293" s="25"/>
-    </row>
-    <row r="294" spans="1:9">
+      <c r="J293" s="28"/>
+    </row>
+    <row r="294" spans="1:10">
       <c r="A294" s="18">
         <v>290</v>
       </c>
@@ -4951,8 +5262,9 @@
       <c r="G294" s="20"/>
       <c r="H294" s="21"/>
       <c r="I294" s="25"/>
-    </row>
-    <row r="295" spans="1:9">
+      <c r="J294" s="28"/>
+    </row>
+    <row r="295" spans="1:10">
       <c r="A295" s="18">
         <v>291</v>
       </c>
@@ -4964,8 +5276,9 @@
       <c r="G295" s="20"/>
       <c r="H295" s="21"/>
       <c r="I295" s="25"/>
-    </row>
-    <row r="296" spans="1:9">
+      <c r="J295" s="28"/>
+    </row>
+    <row r="296" spans="1:10">
       <c r="A296" s="18">
         <v>292</v>
       </c>
@@ -4977,8 +5290,9 @@
       <c r="G296" s="20"/>
       <c r="H296" s="21"/>
       <c r="I296" s="25"/>
-    </row>
-    <row r="297" spans="1:9">
+      <c r="J296" s="28"/>
+    </row>
+    <row r="297" spans="1:10">
       <c r="A297" s="18">
         <v>293</v>
       </c>
@@ -4990,8 +5304,9 @@
       <c r="G297" s="20"/>
       <c r="H297" s="21"/>
       <c r="I297" s="25"/>
-    </row>
-    <row r="298" spans="1:9">
+      <c r="J297" s="28"/>
+    </row>
+    <row r="298" spans="1:10">
       <c r="A298" s="18">
         <v>294</v>
       </c>
@@ -5003,8 +5318,9 @@
       <c r="G298" s="20"/>
       <c r="H298" s="21"/>
       <c r="I298" s="25"/>
-    </row>
-    <row r="299" spans="1:9">
+      <c r="J298" s="28"/>
+    </row>
+    <row r="299" spans="1:10">
       <c r="A299" s="18">
         <v>295</v>
       </c>
@@ -5016,8 +5332,9 @@
       <c r="G299" s="20"/>
       <c r="H299" s="21"/>
       <c r="I299" s="25"/>
-    </row>
-    <row r="300" spans="1:9">
+      <c r="J299" s="28"/>
+    </row>
+    <row r="300" spans="1:10">
       <c r="A300" s="18">
         <v>296</v>
       </c>
@@ -5029,8 +5346,9 @@
       <c r="G300" s="20"/>
       <c r="H300" s="21"/>
       <c r="I300" s="25"/>
-    </row>
-    <row r="301" spans="1:9">
+      <c r="J300" s="28"/>
+    </row>
+    <row r="301" spans="1:10">
       <c r="A301" s="18">
         <v>297</v>
       </c>
@@ -5042,8 +5360,9 @@
       <c r="G301" s="20"/>
       <c r="H301" s="21"/>
       <c r="I301" s="25"/>
-    </row>
-    <row r="302" spans="1:9">
+      <c r="J301" s="28"/>
+    </row>
+    <row r="302" spans="1:10">
       <c r="A302" s="18">
         <v>298</v>
       </c>
@@ -5055,8 +5374,9 @@
       <c r="G302" s="20"/>
       <c r="H302" s="21"/>
       <c r="I302" s="25"/>
-    </row>
-    <row r="303" spans="1:9">
+      <c r="J302" s="28"/>
+    </row>
+    <row r="303" spans="1:10">
       <c r="A303" s="18">
         <v>299</v>
       </c>
@@ -5068,8 +5388,9 @@
       <c r="G303" s="20"/>
       <c r="H303" s="21"/>
       <c r="I303" s="25"/>
-    </row>
-    <row r="304" spans="1:9">
+      <c r="J303" s="28"/>
+    </row>
+    <row r="304" spans="1:10">
       <c r="A304" s="18">
         <v>300</v>
       </c>
@@ -5081,8 +5402,9 @@
       <c r="G304" s="20"/>
       <c r="H304" s="21"/>
       <c r="I304" s="25"/>
-    </row>
-    <row r="305" spans="1:9">
+      <c r="J304" s="28"/>
+    </row>
+    <row r="305" spans="1:10">
       <c r="A305" s="18">
         <v>301</v>
       </c>
@@ -5094,8 +5416,9 @@
       <c r="G305" s="20"/>
       <c r="H305" s="21"/>
       <c r="I305" s="25"/>
-    </row>
-    <row r="306" spans="1:9">
+      <c r="J305" s="28"/>
+    </row>
+    <row r="306" spans="1:10">
       <c r="A306" s="18">
         <v>302</v>
       </c>
@@ -5107,8 +5430,9 @@
       <c r="G306" s="20"/>
       <c r="H306" s="21"/>
       <c r="I306" s="25"/>
-    </row>
-    <row r="307" spans="1:9">
+      <c r="J306" s="28"/>
+    </row>
+    <row r="307" spans="1:10">
       <c r="A307" s="18">
         <v>303</v>
       </c>
@@ -5120,8 +5444,9 @@
       <c r="G307" s="20"/>
       <c r="H307" s="21"/>
       <c r="I307" s="25"/>
-    </row>
-    <row r="308" spans="1:9">
+      <c r="J307" s="28"/>
+    </row>
+    <row r="308" spans="1:10">
       <c r="A308" s="18">
         <v>304</v>
       </c>
@@ -5133,8 +5458,9 @@
       <c r="G308" s="20"/>
       <c r="H308" s="21"/>
       <c r="I308" s="25"/>
-    </row>
-    <row r="309" spans="1:9">
+      <c r="J308" s="28"/>
+    </row>
+    <row r="309" spans="1:10">
       <c r="A309" s="18">
         <v>305</v>
       </c>
@@ -5146,8 +5472,9 @@
       <c r="G309" s="20"/>
       <c r="H309" s="21"/>
       <c r="I309" s="25"/>
-    </row>
-    <row r="310" spans="1:9">
+      <c r="J309" s="28"/>
+    </row>
+    <row r="310" spans="1:10">
       <c r="A310" s="18">
         <v>306</v>
       </c>
@@ -5159,8 +5486,9 @@
       <c r="G310" s="20"/>
       <c r="H310" s="21"/>
       <c r="I310" s="25"/>
-    </row>
-    <row r="311" spans="1:9">
+      <c r="J310" s="28"/>
+    </row>
+    <row r="311" spans="1:10">
       <c r="A311" s="18">
         <v>307</v>
       </c>
@@ -5172,8 +5500,9 @@
       <c r="G311" s="20"/>
       <c r="H311" s="21"/>
       <c r="I311" s="25"/>
-    </row>
-    <row r="312" spans="1:9">
+      <c r="J311" s="28"/>
+    </row>
+    <row r="312" spans="1:10">
       <c r="A312" s="18">
         <v>308</v>
       </c>
@@ -5185,8 +5514,9 @@
       <c r="G312" s="20"/>
       <c r="H312" s="21"/>
       <c r="I312" s="25"/>
-    </row>
-    <row r="313" spans="1:9">
+      <c r="J312" s="28"/>
+    </row>
+    <row r="313" spans="1:10">
       <c r="A313" s="18">
         <v>309</v>
       </c>
@@ -5198,8 +5528,9 @@
       <c r="G313" s="20"/>
       <c r="H313" s="21"/>
       <c r="I313" s="25"/>
-    </row>
-    <row r="314" spans="1:9">
+      <c r="J313" s="28"/>
+    </row>
+    <row r="314" spans="1:10">
       <c r="A314" s="18">
         <v>310</v>
       </c>
@@ -5211,8 +5542,9 @@
       <c r="G314" s="20"/>
       <c r="H314" s="21"/>
       <c r="I314" s="25"/>
-    </row>
-    <row r="315" spans="1:9">
+      <c r="J314" s="28"/>
+    </row>
+    <row r="315" spans="1:10">
       <c r="A315" s="18">
         <v>311</v>
       </c>
@@ -5224,8 +5556,9 @@
       <c r="G315" s="20"/>
       <c r="H315" s="21"/>
       <c r="I315" s="25"/>
-    </row>
-    <row r="316" spans="1:9">
+      <c r="J315" s="28"/>
+    </row>
+    <row r="316" spans="1:10">
       <c r="A316" s="18">
         <v>312</v>
       </c>
@@ -5237,8 +5570,9 @@
       <c r="G316" s="20"/>
       <c r="H316" s="21"/>
       <c r="I316" s="25"/>
-    </row>
-    <row r="317" spans="1:9">
+      <c r="J316" s="28"/>
+    </row>
+    <row r="317" spans="1:10">
       <c r="A317" s="18">
         <v>313</v>
       </c>
@@ -5250,8 +5584,9 @@
       <c r="G317" s="20"/>
       <c r="H317" s="21"/>
       <c r="I317" s="25"/>
-    </row>
-    <row r="318" spans="1:9">
+      <c r="J317" s="28"/>
+    </row>
+    <row r="318" spans="1:10">
       <c r="A318" s="18">
         <v>314</v>
       </c>
@@ -5263,8 +5598,9 @@
       <c r="G318" s="20"/>
       <c r="H318" s="21"/>
       <c r="I318" s="25"/>
-    </row>
-    <row r="319" spans="1:9">
+      <c r="J318" s="28"/>
+    </row>
+    <row r="319" spans="1:10">
       <c r="A319" s="18">
         <v>315</v>
       </c>
@@ -5276,8 +5612,9 @@
       <c r="G319" s="20"/>
       <c r="H319" s="21"/>
       <c r="I319" s="25"/>
-    </row>
-    <row r="320" spans="1:9">
+      <c r="J319" s="28"/>
+    </row>
+    <row r="320" spans="1:10">
       <c r="A320" s="18">
         <v>316</v>
       </c>
@@ -5289,8 +5626,9 @@
       <c r="G320" s="20"/>
       <c r="H320" s="21"/>
       <c r="I320" s="25"/>
-    </row>
-    <row r="321" spans="1:9">
+      <c r="J320" s="28"/>
+    </row>
+    <row r="321" spans="1:10">
       <c r="A321" s="18">
         <v>317</v>
       </c>
@@ -5302,8 +5640,9 @@
       <c r="G321" s="20"/>
       <c r="H321" s="21"/>
       <c r="I321" s="25"/>
-    </row>
-    <row r="322" spans="1:9">
+      <c r="J321" s="28"/>
+    </row>
+    <row r="322" spans="1:10">
       <c r="A322" s="18">
         <v>318</v>
       </c>
@@ -5315,8 +5654,9 @@
       <c r="G322" s="20"/>
       <c r="H322" s="21"/>
       <c r="I322" s="25"/>
-    </row>
-    <row r="323" spans="1:9">
+      <c r="J322" s="28"/>
+    </row>
+    <row r="323" spans="1:10">
       <c r="A323" s="18">
         <v>319</v>
       </c>
@@ -5328,8 +5668,9 @@
       <c r="G323" s="20"/>
       <c r="H323" s="21"/>
       <c r="I323" s="25"/>
-    </row>
-    <row r="324" spans="1:9">
+      <c r="J323" s="28"/>
+    </row>
+    <row r="324" spans="1:10">
       <c r="A324" s="18">
         <v>320</v>
       </c>
@@ -5341,8 +5682,9 @@
       <c r="G324" s="20"/>
       <c r="H324" s="21"/>
       <c r="I324" s="25"/>
-    </row>
-    <row r="325" spans="1:9">
+      <c r="J324" s="28"/>
+    </row>
+    <row r="325" spans="1:10">
       <c r="A325" s="18">
         <v>321</v>
       </c>
@@ -5354,8 +5696,9 @@
       <c r="G325" s="20"/>
       <c r="H325" s="21"/>
       <c r="I325" s="25"/>
-    </row>
-    <row r="326" spans="1:9">
+      <c r="J325" s="28"/>
+    </row>
+    <row r="326" spans="1:10">
       <c r="A326" s="18">
         <v>322</v>
       </c>
@@ -5367,8 +5710,9 @@
       <c r="G326" s="20"/>
       <c r="H326" s="21"/>
       <c r="I326" s="25"/>
-    </row>
-    <row r="327" spans="1:9">
+      <c r="J326" s="28"/>
+    </row>
+    <row r="327" spans="1:10">
       <c r="A327" s="18">
         <v>323</v>
       </c>
@@ -5380,8 +5724,9 @@
       <c r="G327" s="20"/>
       <c r="H327" s="21"/>
       <c r="I327" s="25"/>
-    </row>
-    <row r="328" spans="1:9">
+      <c r="J327" s="28"/>
+    </row>
+    <row r="328" spans="1:10">
       <c r="A328" s="18">
         <v>324</v>
       </c>
@@ -5393,8 +5738,9 @@
       <c r="G328" s="20"/>
       <c r="H328" s="21"/>
       <c r="I328" s="25"/>
-    </row>
-    <row r="329" spans="1:9">
+      <c r="J328" s="28"/>
+    </row>
+    <row r="329" spans="1:10">
       <c r="A329" s="18">
         <v>325</v>
       </c>
@@ -5406,8 +5752,9 @@
       <c r="G329" s="20"/>
       <c r="H329" s="21"/>
       <c r="I329" s="25"/>
-    </row>
-    <row r="330" spans="1:9">
+      <c r="J329" s="28"/>
+    </row>
+    <row r="330" spans="1:10">
       <c r="A330" s="18">
         <v>326</v>
       </c>
@@ -5419,8 +5766,9 @@
       <c r="G330" s="20"/>
       <c r="H330" s="21"/>
       <c r="I330" s="25"/>
-    </row>
-    <row r="331" spans="1:9">
+      <c r="J330" s="28"/>
+    </row>
+    <row r="331" spans="1:10">
       <c r="A331" s="18">
         <v>327</v>
       </c>
@@ -5432,8 +5780,9 @@
       <c r="G331" s="20"/>
       <c r="H331" s="21"/>
       <c r="I331" s="25"/>
-    </row>
-    <row r="332" spans="1:9">
+      <c r="J331" s="28"/>
+    </row>
+    <row r="332" spans="1:10">
       <c r="A332" s="18">
         <v>328</v>
       </c>
@@ -5445,8 +5794,9 @@
       <c r="G332" s="20"/>
       <c r="H332" s="21"/>
       <c r="I332" s="25"/>
-    </row>
-    <row r="333" spans="1:9">
+      <c r="J332" s="28"/>
+    </row>
+    <row r="333" spans="1:10">
       <c r="A333" s="18">
         <v>329</v>
       </c>
@@ -5458,8 +5808,9 @@
       <c r="G333" s="20"/>
       <c r="H333" s="21"/>
       <c r="I333" s="25"/>
-    </row>
-    <row r="334" spans="1:9">
+      <c r="J333" s="28"/>
+    </row>
+    <row r="334" spans="1:10">
       <c r="A334" s="18">
         <v>330</v>
       </c>
@@ -5471,8 +5822,9 @@
       <c r="G334" s="20"/>
       <c r="H334" s="21"/>
       <c r="I334" s="25"/>
-    </row>
-    <row r="335" spans="1:9">
+      <c r="J334" s="28"/>
+    </row>
+    <row r="335" spans="1:10">
       <c r="A335" s="18">
         <v>331</v>
       </c>
@@ -5484,8 +5836,9 @@
       <c r="G335" s="20"/>
       <c r="H335" s="21"/>
       <c r="I335" s="25"/>
-    </row>
-    <row r="336" spans="1:9">
+      <c r="J335" s="28"/>
+    </row>
+    <row r="336" spans="1:10">
       <c r="A336" s="18">
         <v>332</v>
       </c>
@@ -5497,8 +5850,9 @@
       <c r="G336" s="20"/>
       <c r="H336" s="21"/>
       <c r="I336" s="25"/>
-    </row>
-    <row r="337" spans="1:9">
+      <c r="J336" s="28"/>
+    </row>
+    <row r="337" spans="1:10">
       <c r="A337" s="18">
         <v>333</v>
       </c>
@@ -5510,8 +5864,9 @@
       <c r="G337" s="20"/>
       <c r="H337" s="21"/>
       <c r="I337" s="25"/>
-    </row>
-    <row r="338" spans="1:9">
+      <c r="J337" s="28"/>
+    </row>
+    <row r="338" spans="1:10">
       <c r="A338" s="18">
         <v>334</v>
       </c>
@@ -5523,8 +5878,9 @@
       <c r="G338" s="20"/>
       <c r="H338" s="21"/>
       <c r="I338" s="25"/>
-    </row>
-    <row r="339" spans="1:9">
+      <c r="J338" s="28"/>
+    </row>
+    <row r="339" spans="1:10">
       <c r="A339" s="18">
         <v>335</v>
       </c>
@@ -5536,8 +5892,9 @@
       <c r="G339" s="20"/>
       <c r="H339" s="21"/>
       <c r="I339" s="25"/>
-    </row>
-    <row r="340" spans="1:9">
+      <c r="J339" s="28"/>
+    </row>
+    <row r="340" spans="1:10">
       <c r="A340" s="18">
         <v>336</v>
       </c>
@@ -5549,8 +5906,9 @@
       <c r="G340" s="20"/>
       <c r="H340" s="21"/>
       <c r="I340" s="25"/>
-    </row>
-    <row r="341" spans="1:9">
+      <c r="J340" s="28"/>
+    </row>
+    <row r="341" spans="1:10">
       <c r="A341" s="18">
         <v>337</v>
       </c>
@@ -5562,8 +5920,9 @@
       <c r="G341" s="20"/>
       <c r="H341" s="21"/>
       <c r="I341" s="25"/>
-    </row>
-    <row r="342" spans="1:9">
+      <c r="J341" s="28"/>
+    </row>
+    <row r="342" spans="1:10">
       <c r="A342" s="18">
         <v>338</v>
       </c>
@@ -5575,8 +5934,9 @@
       <c r="G342" s="20"/>
       <c r="H342" s="21"/>
       <c r="I342" s="25"/>
-    </row>
-    <row r="343" spans="1:9">
+      <c r="J342" s="28"/>
+    </row>
+    <row r="343" spans="1:10">
       <c r="A343" s="18">
         <v>339</v>
       </c>
@@ -5588,8 +5948,9 @@
       <c r="G343" s="20"/>
       <c r="H343" s="21"/>
       <c r="I343" s="25"/>
-    </row>
-    <row r="344" spans="1:9">
+      <c r="J343" s="28"/>
+    </row>
+    <row r="344" spans="1:10">
       <c r="A344" s="18">
         <v>340</v>
       </c>
@@ -5601,8 +5962,9 @@
       <c r="G344" s="20"/>
       <c r="H344" s="21"/>
       <c r="I344" s="25"/>
-    </row>
-    <row r="345" spans="1:9">
+      <c r="J344" s="28"/>
+    </row>
+    <row r="345" spans="1:10">
       <c r="A345" s="18">
         <v>341</v>
       </c>
@@ -5614,8 +5976,9 @@
       <c r="G345" s="20"/>
       <c r="H345" s="21"/>
       <c r="I345" s="25"/>
-    </row>
-    <row r="346" spans="1:9">
+      <c r="J345" s="28"/>
+    </row>
+    <row r="346" spans="1:10">
       <c r="A346" s="18">
         <v>342</v>
       </c>
@@ -5627,8 +5990,9 @@
       <c r="G346" s="20"/>
       <c r="H346" s="21"/>
       <c r="I346" s="25"/>
-    </row>
-    <row r="347" spans="1:9">
+      <c r="J346" s="28"/>
+    </row>
+    <row r="347" spans="1:10">
       <c r="A347" s="18">
         <v>343</v>
       </c>
@@ -5640,8 +6004,9 @@
       <c r="G347" s="20"/>
       <c r="H347" s="21"/>
       <c r="I347" s="25"/>
-    </row>
-    <row r="348" spans="1:9">
+      <c r="J347" s="28"/>
+    </row>
+    <row r="348" spans="1:10">
       <c r="A348" s="18">
         <v>344</v>
       </c>
@@ -5653,8 +6018,9 @@
       <c r="G348" s="20"/>
       <c r="H348" s="21"/>
       <c r="I348" s="25"/>
-    </row>
-    <row r="349" spans="1:9">
+      <c r="J348" s="28"/>
+    </row>
+    <row r="349" spans="1:10">
       <c r="A349" s="18">
         <v>345</v>
       </c>
@@ -5666,8 +6032,9 @@
       <c r="G349" s="20"/>
       <c r="H349" s="21"/>
       <c r="I349" s="25"/>
-    </row>
-    <row r="350" spans="1:9">
+      <c r="J349" s="28"/>
+    </row>
+    <row r="350" spans="1:10">
       <c r="A350" s="18">
         <v>346</v>
       </c>
@@ -5679,8 +6046,9 @@
       <c r="G350" s="20"/>
       <c r="H350" s="21"/>
       <c r="I350" s="25"/>
-    </row>
-    <row r="351" spans="1:9">
+      <c r="J350" s="28"/>
+    </row>
+    <row r="351" spans="1:10">
       <c r="A351" s="18">
         <v>347</v>
       </c>
@@ -5692,8 +6060,9 @@
       <c r="G351" s="20"/>
       <c r="H351" s="21"/>
       <c r="I351" s="25"/>
-    </row>
-    <row r="352" spans="1:9">
+      <c r="J351" s="28"/>
+    </row>
+    <row r="352" spans="1:10">
       <c r="A352" s="18">
         <v>348</v>
       </c>
@@ -5705,8 +6074,9 @@
       <c r="G352" s="20"/>
       <c r="H352" s="21"/>
       <c r="I352" s="25"/>
-    </row>
-    <row r="353" spans="1:9">
+      <c r="J352" s="28"/>
+    </row>
+    <row r="353" spans="1:10">
       <c r="A353" s="18">
         <v>349</v>
       </c>
@@ -5718,8 +6088,9 @@
       <c r="G353" s="20"/>
       <c r="H353" s="21"/>
       <c r="I353" s="25"/>
-    </row>
-    <row r="354" spans="1:9">
+      <c r="J353" s="28"/>
+    </row>
+    <row r="354" spans="1:10">
       <c r="A354" s="18">
         <v>350</v>
       </c>
@@ -5731,8 +6102,9 @@
       <c r="G354" s="20"/>
       <c r="H354" s="21"/>
       <c r="I354" s="25"/>
-    </row>
-    <row r="355" spans="1:9">
+      <c r="J354" s="28"/>
+    </row>
+    <row r="355" spans="1:10">
       <c r="A355" s="18">
         <v>351</v>
       </c>
@@ -5744,8 +6116,9 @@
       <c r="G355" s="20"/>
       <c r="H355" s="21"/>
       <c r="I355" s="25"/>
-    </row>
-    <row r="356" spans="1:9">
+      <c r="J355" s="28"/>
+    </row>
+    <row r="356" spans="1:10">
       <c r="A356" s="18">
         <v>352</v>
       </c>
@@ -5757,8 +6130,9 @@
       <c r="G356" s="20"/>
       <c r="H356" s="21"/>
       <c r="I356" s="25"/>
-    </row>
-    <row r="357" spans="1:9">
+      <c r="J356" s="28"/>
+    </row>
+    <row r="357" spans="1:10">
       <c r="A357" s="18">
         <v>353</v>
       </c>
@@ -5770,8 +6144,9 @@
       <c r="G357" s="20"/>
       <c r="H357" s="21"/>
       <c r="I357" s="25"/>
-    </row>
-    <row r="358" spans="1:9">
+      <c r="J357" s="28"/>
+    </row>
+    <row r="358" spans="1:10">
       <c r="A358" s="18">
         <v>354</v>
       </c>
@@ -5783,8 +6158,9 @@
       <c r="G358" s="20"/>
       <c r="H358" s="21"/>
       <c r="I358" s="25"/>
-    </row>
-    <row r="359" spans="1:9">
+      <c r="J358" s="28"/>
+    </row>
+    <row r="359" spans="1:10">
       <c r="A359" s="18">
         <v>355</v>
       </c>
@@ -5796,8 +6172,9 @@
       <c r="G359" s="20"/>
       <c r="H359" s="21"/>
       <c r="I359" s="25"/>
-    </row>
-    <row r="360" spans="1:9">
+      <c r="J359" s="28"/>
+    </row>
+    <row r="360" spans="1:10">
       <c r="A360" s="18">
         <v>356</v>
       </c>
@@ -5809,8 +6186,9 @@
       <c r="G360" s="20"/>
       <c r="H360" s="21"/>
       <c r="I360" s="25"/>
-    </row>
-    <row r="361" spans="1:9">
+      <c r="J360" s="28"/>
+    </row>
+    <row r="361" spans="1:10">
       <c r="A361" s="18">
         <v>357</v>
       </c>
@@ -5822,8 +6200,9 @@
       <c r="G361" s="20"/>
       <c r="H361" s="21"/>
       <c r="I361" s="25"/>
-    </row>
-    <row r="362" spans="1:9">
+      <c r="J361" s="28"/>
+    </row>
+    <row r="362" spans="1:10">
       <c r="A362" s="18">
         <v>358</v>
       </c>
@@ -5835,8 +6214,9 @@
       <c r="G362" s="20"/>
       <c r="H362" s="21"/>
       <c r="I362" s="25"/>
-    </row>
-    <row r="363" spans="1:9">
+      <c r="J362" s="28"/>
+    </row>
+    <row r="363" spans="1:10">
       <c r="A363" s="18">
         <v>359</v>
       </c>
@@ -5848,8 +6228,9 @@
       <c r="G363" s="20"/>
       <c r="H363" s="21"/>
       <c r="I363" s="25"/>
-    </row>
-    <row r="364" spans="1:9">
+      <c r="J363" s="28"/>
+    </row>
+    <row r="364" spans="1:10">
       <c r="A364" s="18">
         <v>360</v>
       </c>
@@ -5861,8 +6242,9 @@
       <c r="G364" s="20"/>
       <c r="H364" s="21"/>
       <c r="I364" s="25"/>
-    </row>
-    <row r="365" spans="1:9">
+      <c r="J364" s="28"/>
+    </row>
+    <row r="365" spans="1:10">
       <c r="A365" s="18">
         <v>361</v>
       </c>
@@ -5874,8 +6256,9 @@
       <c r="G365" s="20"/>
       <c r="H365" s="21"/>
       <c r="I365" s="25"/>
-    </row>
-    <row r="366" spans="1:9">
+      <c r="J365" s="28"/>
+    </row>
+    <row r="366" spans="1:10">
       <c r="A366" s="18">
         <v>362</v>
       </c>
@@ -5887,8 +6270,9 @@
       <c r="G366" s="20"/>
       <c r="H366" s="21"/>
       <c r="I366" s="25"/>
-    </row>
-    <row r="367" spans="1:9">
+      <c r="J366" s="28"/>
+    </row>
+    <row r="367" spans="1:10">
       <c r="A367" s="18">
         <v>363</v>
       </c>
@@ -5900,8 +6284,9 @@
       <c r="G367" s="20"/>
       <c r="H367" s="21"/>
       <c r="I367" s="25"/>
-    </row>
-    <row r="368" spans="1:9">
+      <c r="J367" s="28"/>
+    </row>
+    <row r="368" spans="1:10">
       <c r="A368" s="18">
         <v>364</v>
       </c>
@@ -5913,8 +6298,9 @@
       <c r="G368" s="20"/>
       <c r="H368" s="21"/>
       <c r="I368" s="25"/>
-    </row>
-    <row r="369" spans="1:9">
+      <c r="J368" s="28"/>
+    </row>
+    <row r="369" spans="1:10">
       <c r="A369" s="18">
         <v>365</v>
       </c>
@@ -5926,8 +6312,9 @@
       <c r="G369" s="20"/>
       <c r="H369" s="21"/>
       <c r="I369" s="25"/>
-    </row>
-    <row r="370" spans="1:9">
+      <c r="J369" s="28"/>
+    </row>
+    <row r="370" spans="1:10">
       <c r="A370" s="18">
         <v>366</v>
       </c>
@@ -5939,8 +6326,9 @@
       <c r="G370" s="20"/>
       <c r="H370" s="21"/>
       <c r="I370" s="25"/>
-    </row>
-    <row r="371" spans="1:9">
+      <c r="J370" s="28"/>
+    </row>
+    <row r="371" spans="1:10">
       <c r="A371" s="18">
         <v>367</v>
       </c>
@@ -5952,8 +6340,9 @@
       <c r="G371" s="20"/>
       <c r="H371" s="21"/>
       <c r="I371" s="25"/>
-    </row>
-    <row r="372" spans="1:9">
+      <c r="J371" s="28"/>
+    </row>
+    <row r="372" spans="1:10">
       <c r="A372" s="18">
         <v>368</v>
       </c>
@@ -5965,8 +6354,9 @@
       <c r="G372" s="20"/>
       <c r="H372" s="21"/>
       <c r="I372" s="25"/>
-    </row>
-    <row r="373" spans="1:9">
+      <c r="J372" s="28"/>
+    </row>
+    <row r="373" spans="1:10">
       <c r="A373" s="18">
         <v>369</v>
       </c>
@@ -5978,8 +6368,9 @@
       <c r="G373" s="20"/>
       <c r="H373" s="21"/>
       <c r="I373" s="25"/>
-    </row>
-    <row r="374" spans="1:9">
+      <c r="J373" s="28"/>
+    </row>
+    <row r="374" spans="1:10">
       <c r="A374" s="18">
         <v>370</v>
       </c>
@@ -5991,8 +6382,9 @@
       <c r="G374" s="20"/>
       <c r="H374" s="21"/>
       <c r="I374" s="25"/>
-    </row>
-    <row r="375" spans="1:9">
+      <c r="J374" s="28"/>
+    </row>
+    <row r="375" spans="1:10">
       <c r="A375" s="18">
         <v>371</v>
       </c>
@@ -6004,8 +6396,9 @@
       <c r="G375" s="20"/>
       <c r="H375" s="21"/>
       <c r="I375" s="25"/>
-    </row>
-    <row r="376" spans="1:9">
+      <c r="J375" s="28"/>
+    </row>
+    <row r="376" spans="1:10">
       <c r="A376" s="18">
         <v>372</v>
       </c>
@@ -6017,8 +6410,9 @@
       <c r="G376" s="20"/>
       <c r="H376" s="21"/>
       <c r="I376" s="25"/>
-    </row>
-    <row r="377" spans="1:9">
+      <c r="J376" s="28"/>
+    </row>
+    <row r="377" spans="1:10">
       <c r="A377" s="18">
         <v>373</v>
       </c>
@@ -6030,8 +6424,9 @@
       <c r="G377" s="20"/>
       <c r="H377" s="21"/>
       <c r="I377" s="25"/>
-    </row>
-    <row r="378" spans="1:9">
+      <c r="J377" s="28"/>
+    </row>
+    <row r="378" spans="1:10">
       <c r="A378" s="18">
         <v>374</v>
       </c>
@@ -6043,8 +6438,9 @@
       <c r="G378" s="20"/>
       <c r="H378" s="21"/>
       <c r="I378" s="25"/>
-    </row>
-    <row r="379" spans="1:9">
+      <c r="J378" s="28"/>
+    </row>
+    <row r="379" spans="1:10">
       <c r="A379" s="18">
         <v>375</v>
       </c>
@@ -6056,8 +6452,9 @@
       <c r="G379" s="20"/>
       <c r="H379" s="21"/>
       <c r="I379" s="25"/>
-    </row>
-    <row r="380" spans="1:9">
+      <c r="J379" s="28"/>
+    </row>
+    <row r="380" spans="1:10">
       <c r="A380" s="18">
         <v>376</v>
       </c>
@@ -6069,8 +6466,9 @@
       <c r="G380" s="20"/>
       <c r="H380" s="21"/>
       <c r="I380" s="25"/>
-    </row>
-    <row r="381" spans="1:9">
+      <c r="J380" s="28"/>
+    </row>
+    <row r="381" spans="1:10">
       <c r="A381" s="18">
         <v>377</v>
       </c>
@@ -6082,8 +6480,9 @@
       <c r="G381" s="20"/>
       <c r="H381" s="21"/>
       <c r="I381" s="25"/>
-    </row>
-    <row r="382" spans="1:9">
+      <c r="J381" s="28"/>
+    </row>
+    <row r="382" spans="1:10">
       <c r="A382" s="18">
         <v>378</v>
       </c>
@@ -6095,8 +6494,9 @@
       <c r="G382" s="20"/>
       <c r="H382" s="21"/>
       <c r="I382" s="25"/>
-    </row>
-    <row r="383" spans="1:9">
+      <c r="J382" s="28"/>
+    </row>
+    <row r="383" spans="1:10">
       <c r="A383" s="18">
         <v>379</v>
       </c>
@@ -6108,8 +6508,9 @@
       <c r="G383" s="20"/>
       <c r="H383" s="21"/>
       <c r="I383" s="25"/>
-    </row>
-    <row r="384" spans="1:9">
+      <c r="J383" s="28"/>
+    </row>
+    <row r="384" spans="1:10">
       <c r="A384" s="18">
         <v>380</v>
       </c>
@@ -6121,8 +6522,9 @@
       <c r="G384" s="20"/>
       <c r="H384" s="21"/>
       <c r="I384" s="25"/>
-    </row>
-    <row r="385" spans="1:9">
+      <c r="J384" s="28"/>
+    </row>
+    <row r="385" spans="1:10">
       <c r="A385" s="18">
         <v>381</v>
       </c>
@@ -6134,8 +6536,9 @@
       <c r="G385" s="20"/>
       <c r="H385" s="21"/>
       <c r="I385" s="25"/>
-    </row>
-    <row r="386" spans="1:9">
+      <c r="J385" s="28"/>
+    </row>
+    <row r="386" spans="1:10">
       <c r="A386" s="18">
         <v>382</v>
       </c>
@@ -6147,8 +6550,9 @@
       <c r="G386" s="20"/>
       <c r="H386" s="21"/>
       <c r="I386" s="25"/>
-    </row>
-    <row r="387" spans="1:9">
+      <c r="J386" s="28"/>
+    </row>
+    <row r="387" spans="1:10">
       <c r="A387" s="18">
         <v>383</v>
       </c>
@@ -6160,8 +6564,9 @@
       <c r="G387" s="20"/>
       <c r="H387" s="21"/>
       <c r="I387" s="25"/>
-    </row>
-    <row r="388" spans="1:9">
+      <c r="J387" s="28"/>
+    </row>
+    <row r="388" spans="1:10">
       <c r="A388" s="18">
         <v>384</v>
       </c>
@@ -6173,8 +6578,9 @@
       <c r="G388" s="20"/>
       <c r="H388" s="21"/>
       <c r="I388" s="25"/>
-    </row>
-    <row r="389" spans="1:9">
+      <c r="J388" s="28"/>
+    </row>
+    <row r="389" spans="1:10">
       <c r="A389" s="18">
         <v>385</v>
       </c>
@@ -6186,8 +6592,9 @@
       <c r="G389" s="20"/>
       <c r="H389" s="21"/>
       <c r="I389" s="25"/>
-    </row>
-    <row r="390" spans="1:9">
+      <c r="J389" s="28"/>
+    </row>
+    <row r="390" spans="1:10">
       <c r="A390" s="18">
         <v>386</v>
       </c>
@@ -6199,8 +6606,9 @@
       <c r="G390" s="20"/>
       <c r="H390" s="21"/>
       <c r="I390" s="25"/>
-    </row>
-    <row r="391" spans="1:9">
+      <c r="J390" s="28"/>
+    </row>
+    <row r="391" spans="1:10">
       <c r="A391" s="18">
         <v>387</v>
       </c>
@@ -6212,8 +6620,9 @@
       <c r="G391" s="20"/>
       <c r="H391" s="21"/>
       <c r="I391" s="25"/>
-    </row>
-    <row r="392" spans="1:9">
+      <c r="J391" s="28"/>
+    </row>
+    <row r="392" spans="1:10">
       <c r="A392" s="18">
         <v>388</v>
       </c>
@@ -6225,8 +6634,9 @@
       <c r="G392" s="20"/>
       <c r="H392" s="21"/>
       <c r="I392" s="25"/>
-    </row>
-    <row r="393" spans="1:9">
+      <c r="J392" s="28"/>
+    </row>
+    <row r="393" spans="1:10">
       <c r="A393" s="18">
         <v>389</v>
       </c>
@@ -6238,8 +6648,9 @@
       <c r="G393" s="20"/>
       <c r="H393" s="21"/>
       <c r="I393" s="25"/>
-    </row>
-    <row r="394" spans="1:9">
+      <c r="J393" s="28"/>
+    </row>
+    <row r="394" spans="1:10">
       <c r="A394" s="18">
         <v>390</v>
       </c>
@@ -6251,8 +6662,9 @@
       <c r="G394" s="20"/>
       <c r="H394" s="21"/>
       <c r="I394" s="25"/>
-    </row>
-    <row r="395" spans="1:9">
+      <c r="J394" s="28"/>
+    </row>
+    <row r="395" spans="1:10">
       <c r="A395" s="18">
         <v>391</v>
       </c>
@@ -6264,8 +6676,9 @@
       <c r="G395" s="20"/>
       <c r="H395" s="21"/>
       <c r="I395" s="25"/>
-    </row>
-    <row r="396" spans="1:9">
+      <c r="J395" s="28"/>
+    </row>
+    <row r="396" spans="1:10">
       <c r="A396" s="18">
         <v>392</v>
       </c>
@@ -6277,8 +6690,9 @@
       <c r="G396" s="20"/>
       <c r="H396" s="21"/>
       <c r="I396" s="25"/>
-    </row>
-    <row r="397" spans="1:9">
+      <c r="J396" s="28"/>
+    </row>
+    <row r="397" spans="1:10">
       <c r="A397" s="18">
         <v>393</v>
       </c>
@@ -6290,8 +6704,9 @@
       <c r="G397" s="20"/>
       <c r="H397" s="21"/>
       <c r="I397" s="25"/>
-    </row>
-    <row r="398" spans="1:9">
+      <c r="J397" s="28"/>
+    </row>
+    <row r="398" spans="1:10">
       <c r="A398" s="18">
         <v>394</v>
       </c>
@@ -6303,8 +6718,9 @@
       <c r="G398" s="20"/>
       <c r="H398" s="21"/>
       <c r="I398" s="25"/>
-    </row>
-    <row r="399" spans="1:9">
+      <c r="J398" s="28"/>
+    </row>
+    <row r="399" spans="1:10">
       <c r="A399" s="18">
         <v>395</v>
       </c>
@@ -6316,8 +6732,9 @@
       <c r="G399" s="20"/>
       <c r="H399" s="21"/>
       <c r="I399" s="25"/>
-    </row>
-    <row r="400" spans="1:9">
+      <c r="J399" s="28"/>
+    </row>
+    <row r="400" spans="1:10">
       <c r="A400" s="18">
         <v>396</v>
       </c>
@@ -6329,8 +6746,9 @@
       <c r="G400" s="20"/>
       <c r="H400" s="21"/>
       <c r="I400" s="25"/>
-    </row>
-    <row r="401" spans="1:9">
+      <c r="J400" s="28"/>
+    </row>
+    <row r="401" spans="1:10">
       <c r="A401" s="18">
         <v>397</v>
       </c>
@@ -6342,8 +6760,9 @@
       <c r="G401" s="20"/>
       <c r="H401" s="21"/>
       <c r="I401" s="25"/>
-    </row>
-    <row r="402" spans="1:9">
+      <c r="J401" s="28"/>
+    </row>
+    <row r="402" spans="1:10">
       <c r="A402" s="18">
         <v>398</v>
       </c>
@@ -6355,8 +6774,9 @@
       <c r="G402" s="20"/>
       <c r="H402" s="21"/>
       <c r="I402" s="25"/>
-    </row>
-    <row r="403" spans="1:9">
+      <c r="J402" s="28"/>
+    </row>
+    <row r="403" spans="1:10">
       <c r="A403" s="18">
         <v>399</v>
       </c>
@@ -6368,8 +6788,9 @@
       <c r="G403" s="20"/>
       <c r="H403" s="21"/>
       <c r="I403" s="25"/>
-    </row>
-    <row r="404" spans="1:9">
+      <c r="J403" s="28"/>
+    </row>
+    <row r="404" spans="1:10">
       <c r="A404" s="18">
         <v>400</v>
       </c>
@@ -6381,8 +6802,9 @@
       <c r="G404" s="20"/>
       <c r="H404" s="21"/>
       <c r="I404" s="25"/>
-    </row>
-    <row r="405" spans="1:9">
+      <c r="J404" s="28"/>
+    </row>
+    <row r="405" spans="1:10">
       <c r="A405" s="18">
         <v>401</v>
       </c>
@@ -6394,8 +6816,9 @@
       <c r="G405" s="20"/>
       <c r="H405" s="21"/>
       <c r="I405" s="25"/>
-    </row>
-    <row r="406" spans="1:9">
+      <c r="J405" s="28"/>
+    </row>
+    <row r="406" spans="1:10">
       <c r="A406" s="18">
         <v>402</v>
       </c>
@@ -6407,8 +6830,9 @@
       <c r="G406" s="20"/>
       <c r="H406" s="21"/>
       <c r="I406" s="25"/>
-    </row>
-    <row r="407" spans="1:9">
+      <c r="J406" s="28"/>
+    </row>
+    <row r="407" spans="1:10">
       <c r="A407" s="18">
         <v>403</v>
       </c>
@@ -6420,8 +6844,9 @@
       <c r="G407" s="20"/>
       <c r="H407" s="21"/>
       <c r="I407" s="25"/>
-    </row>
-    <row r="408" spans="1:9">
+      <c r="J407" s="28"/>
+    </row>
+    <row r="408" spans="1:10">
       <c r="A408" s="18">
         <v>404</v>
       </c>
@@ -6433,8 +6858,9 @@
       <c r="G408" s="20"/>
       <c r="H408" s="21"/>
       <c r="I408" s="25"/>
-    </row>
-    <row r="409" spans="1:9">
+      <c r="J408" s="28"/>
+    </row>
+    <row r="409" spans="1:10">
       <c r="A409" s="18">
         <v>405</v>
       </c>
@@ -6446,8 +6872,9 @@
       <c r="G409" s="20"/>
       <c r="H409" s="21"/>
       <c r="I409" s="25"/>
-    </row>
-    <row r="410" spans="1:9">
+      <c r="J409" s="28"/>
+    </row>
+    <row r="410" spans="1:10">
       <c r="A410" s="18">
         <v>406</v>
       </c>
@@ -6459,8 +6886,9 @@
       <c r="G410" s="20"/>
       <c r="H410" s="21"/>
       <c r="I410" s="25"/>
-    </row>
-    <row r="411" spans="1:9">
+      <c r="J410" s="28"/>
+    </row>
+    <row r="411" spans="1:10">
       <c r="A411" s="18">
         <v>407</v>
       </c>
@@ -6472,8 +6900,9 @@
       <c r="G411" s="20"/>
       <c r="H411" s="21"/>
       <c r="I411" s="25"/>
-    </row>
-    <row r="412" spans="1:9">
+      <c r="J411" s="28"/>
+    </row>
+    <row r="412" spans="1:10">
       <c r="A412" s="18">
         <v>408</v>
       </c>
@@ -6485,8 +6914,9 @@
       <c r="G412" s="20"/>
       <c r="H412" s="21"/>
       <c r="I412" s="25"/>
-    </row>
-    <row r="413" spans="1:9">
+      <c r="J412" s="28"/>
+    </row>
+    <row r="413" spans="1:10">
       <c r="A413" s="18">
         <v>409</v>
       </c>
@@ -6498,8 +6928,9 @@
       <c r="G413" s="20"/>
       <c r="H413" s="21"/>
       <c r="I413" s="25"/>
-    </row>
-    <row r="414" spans="1:9">
+      <c r="J413" s="28"/>
+    </row>
+    <row r="414" spans="1:10">
       <c r="A414" s="18">
         <v>410</v>
       </c>
@@ -6511,8 +6942,9 @@
       <c r="G414" s="20"/>
       <c r="H414" s="21"/>
       <c r="I414" s="25"/>
-    </row>
-    <row r="415" spans="1:9">
+      <c r="J414" s="28"/>
+    </row>
+    <row r="415" spans="1:10">
       <c r="A415" s="18">
         <v>411</v>
       </c>
@@ -6524,8 +6956,9 @@
       <c r="G415" s="20"/>
       <c r="H415" s="21"/>
       <c r="I415" s="25"/>
-    </row>
-    <row r="416" spans="1:9">
+      <c r="J415" s="28"/>
+    </row>
+    <row r="416" spans="1:10">
       <c r="A416" s="18">
         <v>412</v>
       </c>
@@ -6537,8 +6970,9 @@
       <c r="G416" s="20"/>
       <c r="H416" s="21"/>
       <c r="I416" s="25"/>
-    </row>
-    <row r="417" spans="1:9">
+      <c r="J416" s="28"/>
+    </row>
+    <row r="417" spans="1:10">
       <c r="A417" s="18">
         <v>413</v>
       </c>
@@ -6550,8 +6984,9 @@
       <c r="G417" s="20"/>
       <c r="H417" s="21"/>
       <c r="I417" s="25"/>
-    </row>
-    <row r="418" spans="1:9">
+      <c r="J417" s="28"/>
+    </row>
+    <row r="418" spans="1:10">
       <c r="A418" s="18">
         <v>414</v>
       </c>
@@ -6563,8 +6998,9 @@
       <c r="G418" s="20"/>
       <c r="H418" s="21"/>
       <c r="I418" s="25"/>
-    </row>
-    <row r="419" spans="1:9">
+      <c r="J418" s="28"/>
+    </row>
+    <row r="419" spans="1:10">
       <c r="A419" s="18">
         <v>415</v>
       </c>
@@ -6576,8 +7012,9 @@
       <c r="G419" s="20"/>
       <c r="H419" s="21"/>
       <c r="I419" s="25"/>
-    </row>
-    <row r="420" spans="1:9">
+      <c r="J419" s="28"/>
+    </row>
+    <row r="420" spans="1:10">
       <c r="A420" s="18">
         <v>416</v>
       </c>
@@ -6589,8 +7026,9 @@
       <c r="G420" s="20"/>
       <c r="H420" s="21"/>
       <c r="I420" s="25"/>
-    </row>
-    <row r="421" spans="1:9">
+      <c r="J420" s="28"/>
+    </row>
+    <row r="421" spans="1:10">
       <c r="A421" s="18">
         <v>417</v>
       </c>
@@ -6602,8 +7040,9 @@
       <c r="G421" s="20"/>
       <c r="H421" s="21"/>
       <c r="I421" s="25"/>
-    </row>
-    <row r="422" spans="1:9">
+      <c r="J421" s="28"/>
+    </row>
+    <row r="422" spans="1:10">
       <c r="A422" s="18">
         <v>418</v>
       </c>
@@ -6615,8 +7054,9 @@
       <c r="G422" s="20"/>
       <c r="H422" s="21"/>
       <c r="I422" s="25"/>
-    </row>
-    <row r="423" spans="1:9">
+      <c r="J422" s="28"/>
+    </row>
+    <row r="423" spans="1:10">
       <c r="A423" s="18">
         <v>419</v>
       </c>
@@ -6628,8 +7068,9 @@
       <c r="G423" s="20"/>
       <c r="H423" s="21"/>
       <c r="I423" s="25"/>
-    </row>
-    <row r="424" spans="1:9">
+      <c r="J423" s="28"/>
+    </row>
+    <row r="424" spans="1:10">
       <c r="A424" s="18">
         <v>420</v>
       </c>
@@ -6641,8 +7082,9 @@
       <c r="G424" s="20"/>
       <c r="H424" s="21"/>
       <c r="I424" s="25"/>
-    </row>
-    <row r="425" spans="1:9">
+      <c r="J424" s="28"/>
+    </row>
+    <row r="425" spans="1:10">
       <c r="A425" s="18">
         <v>421</v>
       </c>
@@ -6654,8 +7096,9 @@
       <c r="G425" s="20"/>
       <c r="H425" s="21"/>
       <c r="I425" s="25"/>
-    </row>
-    <row r="426" spans="1:9">
+      <c r="J425" s="28"/>
+    </row>
+    <row r="426" spans="1:10">
       <c r="A426" s="18">
         <v>422</v>
       </c>
@@ -6667,8 +7110,9 @@
       <c r="G426" s="20"/>
       <c r="H426" s="21"/>
       <c r="I426" s="25"/>
-    </row>
-    <row r="427" spans="1:9">
+      <c r="J426" s="28"/>
+    </row>
+    <row r="427" spans="1:10">
       <c r="A427" s="18">
         <v>423</v>
       </c>
@@ -6680,8 +7124,9 @@
       <c r="G427" s="20"/>
       <c r="H427" s="21"/>
       <c r="I427" s="25"/>
-    </row>
-    <row r="428" spans="1:9">
+      <c r="J427" s="28"/>
+    </row>
+    <row r="428" spans="1:10">
       <c r="A428" s="18">
         <v>424</v>
       </c>
@@ -6693,8 +7138,9 @@
       <c r="G428" s="20"/>
       <c r="H428" s="21"/>
       <c r="I428" s="25"/>
-    </row>
-    <row r="429" spans="1:9">
+      <c r="J428" s="28"/>
+    </row>
+    <row r="429" spans="1:10">
       <c r="A429" s="18">
         <v>425</v>
       </c>
@@ -6706,8 +7152,9 @@
       <c r="G429" s="20"/>
       <c r="H429" s="21"/>
       <c r="I429" s="25"/>
-    </row>
-    <row r="430" spans="1:9">
+      <c r="J429" s="28"/>
+    </row>
+    <row r="430" spans="1:10">
       <c r="A430" s="18">
         <v>426</v>
       </c>
@@ -6719,8 +7166,9 @@
       <c r="G430" s="20"/>
       <c r="H430" s="21"/>
       <c r="I430" s="25"/>
-    </row>
-    <row r="431" spans="1:9">
+      <c r="J430" s="28"/>
+    </row>
+    <row r="431" spans="1:10">
       <c r="A431" s="18">
         <v>427</v>
       </c>
@@ -6732,8 +7180,9 @@
       <c r="G431" s="20"/>
       <c r="H431" s="21"/>
       <c r="I431" s="25"/>
-    </row>
-    <row r="432" spans="1:9">
+      <c r="J431" s="28"/>
+    </row>
+    <row r="432" spans="1:10">
       <c r="A432" s="18">
         <v>428</v>
       </c>
@@ -6745,8 +7194,9 @@
       <c r="G432" s="20"/>
       <c r="H432" s="21"/>
       <c r="I432" s="25"/>
-    </row>
-    <row r="433" spans="1:9">
+      <c r="J432" s="28"/>
+    </row>
+    <row r="433" spans="1:10">
       <c r="A433" s="18">
         <v>429</v>
       </c>
@@ -6758,8 +7208,9 @@
       <c r="G433" s="20"/>
       <c r="H433" s="21"/>
       <c r="I433" s="25"/>
-    </row>
-    <row r="434" spans="1:9">
+      <c r="J433" s="28"/>
+    </row>
+    <row r="434" spans="1:10">
       <c r="A434" s="18">
         <v>430</v>
       </c>
@@ -6771,8 +7222,9 @@
       <c r="G434" s="20"/>
       <c r="H434" s="21"/>
       <c r="I434" s="25"/>
-    </row>
-    <row r="435" spans="1:9">
+      <c r="J434" s="28"/>
+    </row>
+    <row r="435" spans="1:10">
       <c r="A435" s="18">
         <v>431</v>
       </c>
@@ -6784,8 +7236,9 @@
       <c r="G435" s="20"/>
       <c r="H435" s="21"/>
       <c r="I435" s="25"/>
-    </row>
-    <row r="436" spans="1:9">
+      <c r="J435" s="28"/>
+    </row>
+    <row r="436" spans="1:10">
       <c r="A436" s="18">
         <v>432</v>
       </c>
@@ -6797,8 +7250,9 @@
       <c r="G436" s="20"/>
       <c r="H436" s="21"/>
       <c r="I436" s="25"/>
-    </row>
-    <row r="437" spans="1:9">
+      <c r="J436" s="28"/>
+    </row>
+    <row r="437" spans="1:10">
       <c r="A437" s="18">
         <v>433</v>
       </c>
@@ -6810,8 +7264,9 @@
       <c r="G437" s="20"/>
       <c r="H437" s="21"/>
       <c r="I437" s="25"/>
-    </row>
-    <row r="438" spans="1:9">
+      <c r="J437" s="28"/>
+    </row>
+    <row r="438" spans="1:10">
       <c r="A438" s="18">
         <v>434</v>
       </c>
@@ -6823,8 +7278,9 @@
       <c r="G438" s="20"/>
       <c r="H438" s="21"/>
       <c r="I438" s="25"/>
-    </row>
-    <row r="439" spans="1:9">
+      <c r="J438" s="28"/>
+    </row>
+    <row r="439" spans="1:10">
       <c r="A439" s="18">
         <v>435</v>
       </c>
@@ -6836,8 +7292,9 @@
       <c r="G439" s="20"/>
       <c r="H439" s="21"/>
       <c r="I439" s="25"/>
-    </row>
-    <row r="440" spans="1:9">
+      <c r="J439" s="28"/>
+    </row>
+    <row r="440" spans="1:10">
       <c r="A440" s="18">
         <v>436</v>
       </c>
@@ -6849,8 +7306,9 @@
       <c r="G440" s="20"/>
       <c r="H440" s="21"/>
       <c r="I440" s="25"/>
-    </row>
-    <row r="441" spans="1:9">
+      <c r="J440" s="28"/>
+    </row>
+    <row r="441" spans="1:10">
       <c r="A441" s="18">
         <v>437</v>
       </c>
@@ -6862,8 +7320,9 @@
       <c r="G441" s="20"/>
       <c r="H441" s="21"/>
       <c r="I441" s="25"/>
-    </row>
-    <row r="442" spans="1:9">
+      <c r="J441" s="28"/>
+    </row>
+    <row r="442" spans="1:10">
       <c r="A442" s="18">
         <v>438</v>
       </c>
@@ -6875,8 +7334,9 @@
       <c r="G442" s="20"/>
       <c r="H442" s="21"/>
       <c r="I442" s="25"/>
-    </row>
-    <row r="443" spans="1:9">
+      <c r="J442" s="28"/>
+    </row>
+    <row r="443" spans="1:10">
       <c r="A443" s="18">
         <v>439</v>
       </c>
@@ -6888,8 +7348,9 @@
       <c r="G443" s="20"/>
       <c r="H443" s="21"/>
       <c r="I443" s="25"/>
-    </row>
-    <row r="444" spans="1:9">
+      <c r="J443" s="28"/>
+    </row>
+    <row r="444" spans="1:10">
       <c r="A444" s="18">
         <v>440</v>
       </c>
@@ -6901,8 +7362,9 @@
       <c r="G444" s="20"/>
       <c r="H444" s="21"/>
       <c r="I444" s="25"/>
-    </row>
-    <row r="445" spans="1:9">
+      <c r="J444" s="28"/>
+    </row>
+    <row r="445" spans="1:10">
       <c r="A445" s="18">
         <v>441</v>
       </c>
@@ -6914,8 +7376,9 @@
       <c r="G445" s="20"/>
       <c r="H445" s="21"/>
       <c r="I445" s="25"/>
-    </row>
-    <row r="446" spans="1:9">
+      <c r="J445" s="28"/>
+    </row>
+    <row r="446" spans="1:10">
       <c r="A446" s="18">
         <v>442</v>
       </c>
@@ -6927,8 +7390,9 @@
       <c r="G446" s="20"/>
       <c r="H446" s="21"/>
       <c r="I446" s="25"/>
-    </row>
-    <row r="447" spans="1:9">
+      <c r="J446" s="28"/>
+    </row>
+    <row r="447" spans="1:10">
       <c r="A447" s="18">
         <v>443</v>
       </c>
@@ -6940,8 +7404,9 @@
       <c r="G447" s="20"/>
       <c r="H447" s="21"/>
       <c r="I447" s="25"/>
-    </row>
-    <row r="448" spans="1:9">
+      <c r="J447" s="28"/>
+    </row>
+    <row r="448" spans="1:10">
       <c r="A448" s="18">
         <v>444</v>
       </c>
@@ -6953,8 +7418,9 @@
       <c r="G448" s="20"/>
       <c r="H448" s="21"/>
       <c r="I448" s="25"/>
-    </row>
-    <row r="449" spans="1:9">
+      <c r="J448" s="28"/>
+    </row>
+    <row r="449" spans="1:10">
       <c r="A449" s="18">
         <v>445</v>
       </c>
@@ -6966,8 +7432,9 @@
       <c r="G449" s="20"/>
       <c r="H449" s="21"/>
       <c r="I449" s="25"/>
-    </row>
-    <row r="450" spans="1:9">
+      <c r="J449" s="28"/>
+    </row>
+    <row r="450" spans="1:10">
       <c r="A450" s="18">
         <v>446</v>
       </c>
@@ -6979,8 +7446,9 @@
       <c r="G450" s="20"/>
       <c r="H450" s="21"/>
       <c r="I450" s="25"/>
-    </row>
-    <row r="451" spans="1:9">
+      <c r="J450" s="28"/>
+    </row>
+    <row r="451" spans="1:10">
       <c r="A451" s="18">
         <v>447</v>
       </c>
@@ -6992,8 +7460,9 @@
       <c r="G451" s="20"/>
       <c r="H451" s="21"/>
       <c r="I451" s="25"/>
-    </row>
-    <row r="452" spans="1:9">
+      <c r="J451" s="28"/>
+    </row>
+    <row r="452" spans="1:10">
       <c r="A452" s="18">
         <v>448</v>
       </c>
@@ -7005,8 +7474,9 @@
       <c r="G452" s="20"/>
       <c r="H452" s="21"/>
       <c r="I452" s="25"/>
-    </row>
-    <row r="453" spans="1:9">
+      <c r="J452" s="28"/>
+    </row>
+    <row r="453" spans="1:10">
       <c r="A453" s="18">
         <v>449</v>
       </c>
@@ -7018,8 +7488,9 @@
       <c r="G453" s="20"/>
       <c r="H453" s="21"/>
       <c r="I453" s="25"/>
-    </row>
-    <row r="454" spans="1:9">
+      <c r="J453" s="28"/>
+    </row>
+    <row r="454" spans="1:10">
       <c r="A454" s="18">
         <v>450</v>
       </c>
@@ -7031,8 +7502,9 @@
       <c r="G454" s="20"/>
       <c r="H454" s="21"/>
       <c r="I454" s="25"/>
-    </row>
-    <row r="455" spans="1:9">
+      <c r="J454" s="28"/>
+    </row>
+    <row r="455" spans="1:10">
       <c r="A455" s="18">
         <v>451</v>
       </c>
@@ -7044,8 +7516,9 @@
       <c r="G455" s="20"/>
       <c r="H455" s="21"/>
       <c r="I455" s="25"/>
-    </row>
-    <row r="456" spans="1:9">
+      <c r="J455" s="28"/>
+    </row>
+    <row r="456" spans="1:10">
       <c r="A456" s="18">
         <v>452</v>
       </c>
@@ -7057,8 +7530,9 @@
       <c r="G456" s="20"/>
       <c r="H456" s="21"/>
       <c r="I456" s="25"/>
-    </row>
-    <row r="457" spans="1:9">
+      <c r="J456" s="28"/>
+    </row>
+    <row r="457" spans="1:10">
       <c r="A457" s="18">
         <v>453</v>
       </c>
@@ -7070,8 +7544,9 @@
       <c r="G457" s="20"/>
       <c r="H457" s="21"/>
       <c r="I457" s="25"/>
-    </row>
-    <row r="458" spans="1:9">
+      <c r="J457" s="28"/>
+    </row>
+    <row r="458" spans="1:10">
       <c r="A458" s="18">
         <v>454</v>
       </c>
@@ -7083,8 +7558,9 @@
       <c r="G458" s="20"/>
       <c r="H458" s="21"/>
       <c r="I458" s="25"/>
-    </row>
-    <row r="459" spans="1:9">
+      <c r="J458" s="28"/>
+    </row>
+    <row r="459" spans="1:10">
       <c r="A459" s="18">
         <v>455</v>
       </c>
@@ -7096,8 +7572,9 @@
       <c r="G459" s="20"/>
       <c r="H459" s="21"/>
       <c r="I459" s="25"/>
-    </row>
-    <row r="460" spans="1:9">
+      <c r="J459" s="28"/>
+    </row>
+    <row r="460" spans="1:10">
       <c r="A460" s="18">
         <v>456</v>
       </c>
@@ -7109,8 +7586,9 @@
       <c r="G460" s="20"/>
       <c r="H460" s="21"/>
       <c r="I460" s="25"/>
-    </row>
-    <row r="461" spans="1:9">
+      <c r="J460" s="28"/>
+    </row>
+    <row r="461" spans="1:10">
       <c r="A461" s="18">
         <v>457</v>
       </c>
@@ -7122,8 +7600,9 @@
       <c r="G461" s="20"/>
       <c r="H461" s="21"/>
       <c r="I461" s="25"/>
-    </row>
-    <row r="462" spans="1:9">
+      <c r="J461" s="28"/>
+    </row>
+    <row r="462" spans="1:10">
       <c r="A462" s="18">
         <v>458</v>
       </c>
@@ -7135,8 +7614,9 @@
       <c r="G462" s="20"/>
       <c r="H462" s="21"/>
       <c r="I462" s="25"/>
-    </row>
-    <row r="463" spans="1:9">
+      <c r="J462" s="28"/>
+    </row>
+    <row r="463" spans="1:10">
       <c r="A463" s="18">
         <v>459</v>
       </c>
@@ -7148,8 +7628,9 @@
       <c r="G463" s="20"/>
       <c r="H463" s="21"/>
       <c r="I463" s="25"/>
-    </row>
-    <row r="464" spans="1:9">
+      <c r="J463" s="28"/>
+    </row>
+    <row r="464" spans="1:10">
       <c r="A464" s="18">
         <v>460</v>
       </c>
@@ -7161,8 +7642,9 @@
       <c r="G464" s="20"/>
       <c r="H464" s="21"/>
       <c r="I464" s="25"/>
-    </row>
-    <row r="465" spans="1:9">
+      <c r="J464" s="28"/>
+    </row>
+    <row r="465" spans="1:10">
       <c r="A465" s="18">
         <v>461</v>
       </c>
@@ -7174,8 +7656,9 @@
       <c r="G465" s="20"/>
       <c r="H465" s="21"/>
       <c r="I465" s="25"/>
-    </row>
-    <row r="466" spans="1:9">
+      <c r="J465" s="28"/>
+    </row>
+    <row r="466" spans="1:10">
       <c r="A466" s="18">
         <v>462</v>
       </c>
@@ -7187,8 +7670,9 @@
       <c r="G466" s="20"/>
       <c r="H466" s="21"/>
       <c r="I466" s="25"/>
-    </row>
-    <row r="467" spans="1:9">
+      <c r="J466" s="28"/>
+    </row>
+    <row r="467" spans="1:10">
       <c r="A467" s="18">
         <v>463</v>
       </c>
@@ -7200,8 +7684,9 @@
       <c r="G467" s="20"/>
       <c r="H467" s="21"/>
       <c r="I467" s="25"/>
-    </row>
-    <row r="468" spans="1:9">
+      <c r="J467" s="28"/>
+    </row>
+    <row r="468" spans="1:10">
       <c r="A468" s="18">
         <v>464</v>
       </c>
@@ -7213,8 +7698,9 @@
       <c r="G468" s="20"/>
       <c r="H468" s="21"/>
       <c r="I468" s="25"/>
-    </row>
-    <row r="469" spans="1:9">
+      <c r="J468" s="28"/>
+    </row>
+    <row r="469" spans="1:10">
       <c r="A469" s="18">
         <v>465</v>
       </c>
@@ -7226,8 +7712,9 @@
       <c r="G469" s="20"/>
       <c r="H469" s="21"/>
       <c r="I469" s="25"/>
-    </row>
-    <row r="470" spans="1:9">
+      <c r="J469" s="28"/>
+    </row>
+    <row r="470" spans="1:10">
       <c r="A470" s="18">
         <v>466</v>
       </c>
@@ -7239,8 +7726,9 @@
       <c r="G470" s="20"/>
       <c r="H470" s="21"/>
       <c r="I470" s="25"/>
-    </row>
-    <row r="471" spans="1:9">
+      <c r="J470" s="28"/>
+    </row>
+    <row r="471" spans="1:10">
       <c r="A471" s="18">
         <v>467</v>
       </c>
@@ -7252,8 +7740,9 @@
       <c r="G471" s="20"/>
       <c r="H471" s="21"/>
       <c r="I471" s="25"/>
-    </row>
-    <row r="472" spans="1:9">
+      <c r="J471" s="28"/>
+    </row>
+    <row r="472" spans="1:10">
       <c r="A472" s="18">
         <v>468</v>
       </c>
@@ -7265,8 +7754,9 @@
       <c r="G472" s="20"/>
       <c r="H472" s="21"/>
       <c r="I472" s="25"/>
-    </row>
-    <row r="473" spans="1:9">
+      <c r="J472" s="28"/>
+    </row>
+    <row r="473" spans="1:10">
       <c r="A473" s="18">
         <v>469</v>
       </c>
@@ -7278,8 +7768,9 @@
       <c r="G473" s="20"/>
       <c r="H473" s="21"/>
       <c r="I473" s="25"/>
-    </row>
-    <row r="474" spans="1:9">
+      <c r="J473" s="28"/>
+    </row>
+    <row r="474" spans="1:10">
       <c r="A474" s="18">
         <v>470</v>
       </c>
@@ -7291,8 +7782,9 @@
       <c r="G474" s="20"/>
       <c r="H474" s="21"/>
       <c r="I474" s="25"/>
-    </row>
-    <row r="475" spans="1:9">
+      <c r="J474" s="28"/>
+    </row>
+    <row r="475" spans="1:10">
       <c r="A475" s="18">
         <v>471</v>
       </c>
@@ -7304,8 +7796,9 @@
       <c r="G475" s="20"/>
       <c r="H475" s="21"/>
       <c r="I475" s="25"/>
-    </row>
-    <row r="476" spans="1:9">
+      <c r="J475" s="28"/>
+    </row>
+    <row r="476" spans="1:10">
       <c r="A476" s="18">
         <v>472</v>
       </c>
@@ -7317,8 +7810,9 @@
       <c r="G476" s="20"/>
       <c r="H476" s="21"/>
       <c r="I476" s="25"/>
-    </row>
-    <row r="477" spans="1:9">
+      <c r="J476" s="28"/>
+    </row>
+    <row r="477" spans="1:10">
       <c r="A477" s="18">
         <v>473</v>
       </c>
@@ -7330,8 +7824,9 @@
       <c r="G477" s="20"/>
       <c r="H477" s="21"/>
       <c r="I477" s="25"/>
-    </row>
-    <row r="478" spans="1:9">
+      <c r="J477" s="28"/>
+    </row>
+    <row r="478" spans="1:10">
       <c r="A478" s="18">
         <v>474</v>
       </c>
@@ -7343,8 +7838,9 @@
       <c r="G478" s="20"/>
       <c r="H478" s="21"/>
       <c r="I478" s="25"/>
-    </row>
-    <row r="479" spans="1:9">
+      <c r="J478" s="28"/>
+    </row>
+    <row r="479" spans="1:10">
       <c r="A479" s="18">
         <v>475</v>
       </c>
@@ -7356,8 +7852,9 @@
       <c r="G479" s="20"/>
       <c r="H479" s="21"/>
       <c r="I479" s="25"/>
-    </row>
-    <row r="480" spans="1:9">
+      <c r="J479" s="28"/>
+    </row>
+    <row r="480" spans="1:10">
       <c r="A480" s="18">
         <v>476</v>
       </c>
@@ -7369,8 +7866,9 @@
       <c r="G480" s="20"/>
       <c r="H480" s="21"/>
       <c r="I480" s="25"/>
-    </row>
-    <row r="481" spans="1:9">
+      <c r="J480" s="28"/>
+    </row>
+    <row r="481" spans="1:10">
       <c r="A481" s="18">
         <v>477</v>
       </c>
@@ -7382,8 +7880,9 @@
       <c r="G481" s="20"/>
       <c r="H481" s="21"/>
       <c r="I481" s="25"/>
-    </row>
-    <row r="482" spans="1:9">
+      <c r="J481" s="28"/>
+    </row>
+    <row r="482" spans="1:10">
       <c r="A482" s="18">
         <v>478</v>
       </c>
@@ -7395,8 +7894,9 @@
       <c r="G482" s="20"/>
       <c r="H482" s="21"/>
       <c r="I482" s="25"/>
-    </row>
-    <row r="483" spans="1:9">
+      <c r="J482" s="28"/>
+    </row>
+    <row r="483" spans="1:10">
       <c r="A483" s="18">
         <v>479</v>
       </c>
@@ -7408,8 +7908,9 @@
       <c r="G483" s="20"/>
       <c r="H483" s="21"/>
       <c r="I483" s="25"/>
-    </row>
-    <row r="484" spans="1:9">
+      <c r="J483" s="28"/>
+    </row>
+    <row r="484" spans="1:10">
       <c r="A484" s="18">
         <v>480</v>
       </c>
@@ -7421,8 +7922,9 @@
       <c r="G484" s="20"/>
       <c r="H484" s="21"/>
       <c r="I484" s="25"/>
-    </row>
-    <row r="485" spans="1:9">
+      <c r="J484" s="28"/>
+    </row>
+    <row r="485" spans="1:10">
       <c r="A485" s="18">
         <v>481</v>
       </c>
@@ -7434,8 +7936,9 @@
       <c r="G485" s="20"/>
       <c r="H485" s="21"/>
       <c r="I485" s="25"/>
-    </row>
-    <row r="486" spans="1:9">
+      <c r="J485" s="28"/>
+    </row>
+    <row r="486" spans="1:10">
       <c r="A486" s="18">
         <v>482</v>
       </c>
@@ -7447,8 +7950,9 @@
       <c r="G486" s="20"/>
       <c r="H486" s="21"/>
       <c r="I486" s="25"/>
-    </row>
-    <row r="487" spans="1:9">
+      <c r="J486" s="28"/>
+    </row>
+    <row r="487" spans="1:10">
       <c r="A487" s="18">
         <v>483</v>
       </c>
@@ -7460,8 +7964,9 @@
       <c r="G487" s="20"/>
       <c r="H487" s="21"/>
       <c r="I487" s="25"/>
-    </row>
-    <row r="488" spans="1:9">
+      <c r="J487" s="28"/>
+    </row>
+    <row r="488" spans="1:10">
       <c r="A488" s="18">
         <v>484</v>
       </c>
@@ -7473,8 +7978,9 @@
       <c r="G488" s="20"/>
       <c r="H488" s="21"/>
       <c r="I488" s="25"/>
-    </row>
-    <row r="489" spans="1:9">
+      <c r="J488" s="28"/>
+    </row>
+    <row r="489" spans="1:10">
       <c r="A489" s="18">
         <v>485</v>
       </c>
@@ -7486,8 +7992,9 @@
       <c r="G489" s="20"/>
       <c r="H489" s="21"/>
       <c r="I489" s="25"/>
-    </row>
-    <row r="490" spans="1:9">
+      <c r="J489" s="28"/>
+    </row>
+    <row r="490" spans="1:10">
       <c r="A490" s="18">
         <v>486</v>
       </c>
@@ -7499,8 +8006,9 @@
       <c r="G490" s="20"/>
       <c r="H490" s="21"/>
       <c r="I490" s="25"/>
-    </row>
-    <row r="491" spans="1:9">
+      <c r="J490" s="28"/>
+    </row>
+    <row r="491" spans="1:10">
       <c r="A491" s="18">
         <v>487</v>
       </c>
@@ -7512,8 +8020,9 @@
       <c r="G491" s="20"/>
       <c r="H491" s="21"/>
       <c r="I491" s="25"/>
-    </row>
-    <row r="492" spans="1:9">
+      <c r="J491" s="28"/>
+    </row>
+    <row r="492" spans="1:10">
       <c r="A492" s="18">
         <v>488</v>
       </c>
@@ -7525,8 +8034,9 @@
       <c r="G492" s="20"/>
       <c r="H492" s="21"/>
       <c r="I492" s="25"/>
-    </row>
-    <row r="493" spans="1:9">
+      <c r="J492" s="28"/>
+    </row>
+    <row r="493" spans="1:10">
       <c r="A493" s="18">
         <v>489</v>
       </c>
@@ -7538,8 +8048,9 @@
       <c r="G493" s="20"/>
       <c r="H493" s="21"/>
       <c r="I493" s="25"/>
-    </row>
-    <row r="494" spans="1:9">
+      <c r="J493" s="28"/>
+    </row>
+    <row r="494" spans="1:10">
       <c r="A494" s="18">
         <v>490</v>
       </c>
@@ -7551,8 +8062,9 @@
       <c r="G494" s="20"/>
       <c r="H494" s="21"/>
       <c r="I494" s="25"/>
-    </row>
-    <row r="495" spans="1:9">
+      <c r="J494" s="28"/>
+    </row>
+    <row r="495" spans="1:10">
       <c r="A495" s="18">
         <v>491</v>
       </c>
@@ -7564,8 +8076,9 @@
       <c r="G495" s="20"/>
       <c r="H495" s="21"/>
       <c r="I495" s="25"/>
-    </row>
-    <row r="496" spans="1:9">
+      <c r="J495" s="28"/>
+    </row>
+    <row r="496" spans="1:10">
       <c r="A496" s="18">
         <v>492</v>
       </c>
@@ -7577,8 +8090,9 @@
       <c r="G496" s="20"/>
       <c r="H496" s="21"/>
       <c r="I496" s="25"/>
-    </row>
-    <row r="497" spans="1:9">
+      <c r="J496" s="28"/>
+    </row>
+    <row r="497" spans="1:10">
       <c r="A497" s="18">
         <v>493</v>
       </c>
@@ -7590,8 +8104,9 @@
       <c r="G497" s="20"/>
       <c r="H497" s="21"/>
       <c r="I497" s="25"/>
-    </row>
-    <row r="498" spans="1:9">
+      <c r="J497" s="28"/>
+    </row>
+    <row r="498" spans="1:10">
       <c r="A498" s="18">
         <v>494</v>
       </c>
@@ -7603,8 +8118,9 @@
       <c r="G498" s="20"/>
       <c r="H498" s="21"/>
       <c r="I498" s="25"/>
-    </row>
-    <row r="499" spans="1:9">
+      <c r="J498" s="28"/>
+    </row>
+    <row r="499" spans="1:10">
       <c r="A499" s="18">
         <v>495</v>
       </c>
@@ -7616,8 +8132,9 @@
       <c r="G499" s="20"/>
       <c r="H499" s="21"/>
       <c r="I499" s="25"/>
-    </row>
-    <row r="500" spans="1:9">
+      <c r="J499" s="28"/>
+    </row>
+    <row r="500" spans="1:10">
       <c r="A500" s="18">
         <v>496</v>
       </c>
@@ -7629,8 +8146,9 @@
       <c r="G500" s="20"/>
       <c r="H500" s="21"/>
       <c r="I500" s="25"/>
-    </row>
-    <row r="501" spans="1:9">
+      <c r="J500" s="28"/>
+    </row>
+    <row r="501" spans="1:10">
       <c r="A501" s="18">
         <v>497</v>
       </c>
@@ -7642,8 +8160,9 @@
       <c r="G501" s="20"/>
       <c r="H501" s="21"/>
       <c r="I501" s="25"/>
-    </row>
-    <row r="502" spans="1:9">
+      <c r="J501" s="28"/>
+    </row>
+    <row r="502" spans="1:10">
       <c r="A502" s="18">
         <v>498</v>
       </c>
@@ -7655,8 +8174,9 @@
       <c r="G502" s="20"/>
       <c r="H502" s="21"/>
       <c r="I502" s="25"/>
-    </row>
-    <row r="503" spans="1:9">
+      <c r="J502" s="28"/>
+    </row>
+    <row r="503" spans="1:10">
       <c r="A503" s="18">
         <v>499</v>
       </c>
@@ -7668,8 +8188,9 @@
       <c r="G503" s="20"/>
       <c r="H503" s="21"/>
       <c r="I503" s="25"/>
-    </row>
-    <row r="504" spans="1:9">
+      <c r="J503" s="28"/>
+    </row>
+    <row r="504" spans="1:10">
       <c r="A504" s="18">
         <v>500</v>
       </c>
@@ -7681,9 +8202,10 @@
       <c r="G504" s="20"/>
       <c r="H504" s="21"/>
       <c r="I504" s="25"/>
+      <c r="J504" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:J4" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}"/>
+  <autoFilter ref="A4:K4" xr:uid="{C4FA0F16-CA74-7F4E-89C7-E1A2B23ACF88}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
@@ -7693,7 +8215,7 @@
       <formula>$G5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I504">
+  <conditionalFormatting sqref="I5:J504">
     <cfRule type="expression" dxfId="40" priority="114">
       <formula>$G5&lt;&gt;""</formula>
     </cfRule>
